--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_28.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1761245.149658927</v>
+        <v>1764552.986547959</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1151840.918742178</v>
+        <v>1151840.918742179</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14661612.74404854</v>
+        <v>14661612.74404855</v>
       </c>
     </row>
     <row r="9">
@@ -656,70 +656,70 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G2" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>47.13383555196375</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="U2" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
+      <c r="V2" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>24.95505229511726</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -738,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -747,19 +747,19 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>47.13383555196375</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>53.51252900994975</v>
@@ -801,10 +801,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="Y3" t="n">
-        <v>46.38724422570589</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>26.16190956546852</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -838,10 +838,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>53.51252900994975</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>1.170977004479181</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -902,13 +902,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>62.4162677022923</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -938,16 +938,16 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>230.0285617769921</v>
       </c>
       <c r="X5" t="n">
         <v>241.0142888776591</v>
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>45.28887413297245</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -1038,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>45.28887413297245</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>37.10634673358869</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,16 +1069,16 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,13 +1139,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="F8" t="n">
-        <v>69.1170502640262</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,13 +1209,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1263,13 +1263,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>15.87894234389537</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>241.0142888776591</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>108.4947089277731</v>
       </c>
     </row>
     <row r="10">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1312,10 +1312,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1373,25 +1373,25 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>1.809496073036188</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1415,16 +1415,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>100.3796369526212</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1546,10 +1546,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>22.26949182588285</v>
@@ -1567,16 +1567,16 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1616,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>230.8744955960827</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G14" t="n">
         <v>241.0142888776591</v>
@@ -1625,7 +1625,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -1686,19 +1686,19 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1707,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1740,16 +1740,16 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>190.9141499935689</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>113.756803001291</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -1783,10 +1783,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>22.26949182588285</v>
@@ -1804,10 +1804,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -1819,7 +1819,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1844,7 +1844,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>200.3360962888297</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1862,7 +1862,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2078,76 +2078,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>200.3360962888296</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>11.19305615617957</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T20" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2175,13 +2175,13 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>34.39557631867186</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>50.05769526855297</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2220,7 +2220,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2324,22 +2324,22 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>71.01467844038824</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2360,10 +2360,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2372,7 +2372,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2384,7 +2384,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="24">
@@ -2394,19 +2394,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>6.438799626810386</v>
+        <v>118.5666611881008</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2448,10 +2448,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2518,13 +2518,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2536,7 +2536,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2552,13 +2552,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.809496073036188</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2618,10 +2618,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2631,7 +2631,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2640,19 +2640,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>11.81534703160788</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>30.86155971440646</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
@@ -2688,7 +2688,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -2697,7 +2697,7 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2755,7 +2755,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2776,7 +2776,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2789,23 +2789,23 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E29" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
@@ -2834,16 +2834,16 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2858,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2868,7 +2868,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2877,19 +2877,19 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>91.47501740479427</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2919,7 +2919,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>123.888655019309</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -2928,13 +2928,13 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2968,10 +2968,10 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>39.82778746869524</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3026,76 +3026,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>200.3360962888297</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
+        <v>94.41048699370604</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S32" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="E32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3105,31 +3105,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>62.409786123285</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,10 +3153,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>85.22343841471898</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -3171,10 +3171,10 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3226,22 +3226,22 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>200.3360962888296</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3275,7 +3275,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3287,7 +3287,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U35" t="n">
         <v>241.0142888776591</v>
@@ -3326,7 +3326,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="W35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3342,10 +3342,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3354,16 +3354,16 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>117.0570377807758</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>68.29221919223491</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3399,19 +3399,19 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3466,10 +3466,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>47.02492433367365</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3509,13 +3509,13 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>241.0142888776591</v>
@@ -3545,22 +3545,22 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3582,7 +3582,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3594,16 +3594,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>14.5118132246827</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3627,10 +3627,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -3639,16 +3639,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>65.13060206523731</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3709,19 +3709,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3737,76 +3737,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J41" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W41" t="n">
-        <v>230.8744955960827</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
-      </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>234.288905720311</v>
       </c>
     </row>
     <row r="42">
@@ -3816,22 +3816,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3864,28 +3864,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>35.40726547353844</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>55.8709254735974</v>
       </c>
     </row>
     <row r="43">
@@ -3910,49 +3910,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3974,76 +3974,76 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="F44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
       <c r="G44" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4053,31 +4053,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>48.75124789143251</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>85.22343841471898</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4116,13 +4116,13 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4153,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>105.9439968277793</v>
+        <v>26.68381369134799</v>
       </c>
       <c r="C2" t="n">
-        <v>105.9439968277793</v>
+        <v>26.68381369134799</v>
       </c>
       <c r="D2" t="n">
-        <v>105.9439968277793</v>
+        <v>26.68381369134799</v>
       </c>
       <c r="E2" t="n">
-        <v>105.9439968277793</v>
+        <v>26.68381369134799</v>
       </c>
       <c r="F2" t="n">
-        <v>58.33406192680583</v>
+        <v>19.73831294214452</v>
       </c>
       <c r="G2" t="n">
         <v>4.28100232079598</v>
@@ -4334,16 +4334,16 @@
         <v>57.25840604064623</v>
       </c>
       <c r="L2" t="n">
-        <v>108.0953086000985</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="M2" t="n">
-        <v>108.0953086000985</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="N2" t="n">
-        <v>108.0953086000985</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="O2" t="n">
-        <v>161.0727123199487</v>
+        <v>163.2132134803467</v>
       </c>
       <c r="P2" t="n">
         <v>214.050116039799</v>
@@ -4355,25 +4355,25 @@
         <v>214.050116039799</v>
       </c>
       <c r="S2" t="n">
-        <v>159.9970564337892</v>
+        <v>214.050116039799</v>
       </c>
       <c r="T2" t="n">
         <v>159.9970564337892</v>
       </c>
       <c r="U2" t="n">
-        <v>159.9970564337892</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="V2" t="n">
-        <v>159.9970564337892</v>
+        <v>51.89093722176946</v>
       </c>
       <c r="W2" t="n">
-        <v>159.9970564337892</v>
+        <v>26.68381369134799</v>
       </c>
       <c r="X2" t="n">
-        <v>159.9970564337892</v>
+        <v>26.68381369134799</v>
       </c>
       <c r="Y2" t="n">
-        <v>159.9970564337892</v>
+        <v>26.68381369134799</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4383,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>59.08819457959154</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="C3" t="n">
-        <v>59.08819457959154</v>
+        <v>51.89093722176946</v>
       </c>
       <c r="D3" t="n">
-        <v>59.08819457959154</v>
+        <v>51.89093722176946</v>
       </c>
       <c r="E3" t="n">
-        <v>59.08819457959154</v>
+        <v>51.89093722176946</v>
       </c>
       <c r="F3" t="n">
-        <v>5.035134973581694</v>
+        <v>51.89093722176946</v>
       </c>
       <c r="G3" t="n">
-        <v>5.035134973581694</v>
+        <v>51.89093722176946</v>
       </c>
       <c r="H3" t="n">
-        <v>5.035134973581694</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="I3" t="n">
-        <v>5.035134973581694</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J3" t="n">
         <v>4.28100232079598</v>
       </c>
       <c r="K3" t="n">
-        <v>55.11790488024824</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="L3" t="n">
-        <v>108.0953086000985</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="M3" t="n">
         <v>108.0953086000985</v>
@@ -4422,7 +4422,7 @@
         <v>108.0953086000985</v>
       </c>
       <c r="O3" t="n">
-        <v>108.0953086000985</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="P3" t="n">
         <v>161.0727123199487</v>
@@ -4431,28 +4431,28 @@
         <v>214.050116039799</v>
       </c>
       <c r="R3" t="n">
+        <v>214.050116039799</v>
+      </c>
+      <c r="S3" t="n">
         <v>159.9970564337892</v>
       </c>
-      <c r="S3" t="n">
-        <v>105.9439968277793</v>
-      </c>
       <c r="T3" t="n">
-        <v>105.9439968277793</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="U3" t="n">
-        <v>105.9439968277793</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="V3" t="n">
-        <v>105.9439968277793</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="W3" t="n">
-        <v>105.9439968277793</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="X3" t="n">
         <v>105.9439968277793</v>
       </c>
       <c r="Y3" t="n">
-        <v>59.08819457959154</v>
+        <v>105.9439968277793</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>80.82849811456629</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="C4" t="n">
-        <v>80.82849811456629</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="D4" t="n">
-        <v>80.82849811456629</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="E4" t="n">
-        <v>80.82849811456629</v>
+        <v>79.51782554952828</v>
       </c>
       <c r="F4" t="n">
-        <v>80.82849811456629</v>
+        <v>79.51782554952828</v>
       </c>
       <c r="G4" t="n">
-        <v>80.82849811456629</v>
+        <v>79.51782554952828</v>
       </c>
       <c r="H4" t="n">
-        <v>80.82849811456629</v>
+        <v>79.51782554952828</v>
       </c>
       <c r="I4" t="n">
-        <v>80.82849811456629</v>
+        <v>79.51782554952828</v>
       </c>
       <c r="J4" t="n">
-        <v>26.77543850855644</v>
+        <v>79.51782554952828</v>
       </c>
       <c r="K4" t="n">
-        <v>4.28100232079598</v>
+        <v>79.51782554952828</v>
       </c>
       <c r="L4" t="n">
-        <v>31.59512732850896</v>
+        <v>106.8319505572413</v>
       </c>
       <c r="M4" t="n">
-        <v>70.78316552073113</v>
+        <v>146.0199887494634</v>
       </c>
       <c r="N4" t="n">
-        <v>114.4740161761674</v>
+        <v>189.7108394048997</v>
       </c>
       <c r="O4" t="n">
-        <v>138.8132928110667</v>
+        <v>214.050116039799</v>
       </c>
       <c r="P4" t="n">
-        <v>136.0643627756056</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.01130316959576</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="R4" t="n">
-        <v>82.01130316959576</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="S4" t="n">
-        <v>82.01130316959576</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="T4" t="n">
-        <v>82.01130316959576</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="U4" t="n">
-        <v>82.01130316959576</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="V4" t="n">
-        <v>80.82849811456629</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="W4" t="n">
-        <v>80.82849811456629</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="X4" t="n">
-        <v>80.82849811456629</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="Y4" t="n">
-        <v>80.82849811456629</v>
+        <v>105.9439968277793</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>569.2254314512334</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="C5" t="n">
-        <v>569.2254314512334</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="D5" t="n">
-        <v>569.2254314512334</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="E5" t="n">
-        <v>325.7766548071333</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="F5" t="n">
-        <v>82.32787816303323</v>
+        <v>34.73845373156126</v>
       </c>
       <c r="G5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4586,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>812.6742080953335</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T5" t="n">
-        <v>812.6742080953335</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U5" t="n">
-        <v>812.6742080953335</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="V5" t="n">
-        <v>812.6742080953335</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="W5" t="n">
-        <v>812.6742080953335</v>
+        <v>285.1327311248648</v>
       </c>
       <c r="X5" t="n">
-        <v>569.2254314512334</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="Y5" t="n">
-        <v>569.2254314512334</v>
+        <v>41.68395448076474</v>
       </c>
     </row>
     <row r="6">
@@ -4647,19 +4647,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N6" t="n">
-        <v>656.0584510084244</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
         <v>894.6625969973069</v>
@@ -4686,10 +4686,10 @@
         <v>862.8876260635219</v>
       </c>
       <c r="X6" t="n">
-        <v>817.1412885554689</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y6" t="n">
-        <v>817.1412885554689</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>961.308225475175</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>961.308225475175</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>961.308225475175</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8134336004835</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="H7" t="n">
-        <v>41.77557929797318</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="I7" t="n">
-        <v>41.77557929797318</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K7" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L7" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M7" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N7" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O7" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>961.308225475175</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>961.308225475175</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>961.308225475175</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>961.308225475175</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>961.308225475175</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>961.308225475175</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>961.308225475175</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>961.308225475175</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>961.308225475175</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>961.308225475175</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>104.5536560184564</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C8" t="n">
-        <v>104.5536560184564</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D8" t="n">
-        <v>104.5536560184564</v>
+        <v>710.516763498309</v>
       </c>
       <c r="E8" t="n">
-        <v>104.5536560184564</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F8" t="n">
-        <v>34.73845373156126</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G8" t="n">
         <v>19.28114311021272</v>
@@ -4826,28 +4826,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V8" t="n">
-        <v>348.0024326625565</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W8" t="n">
-        <v>348.0024326625565</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X8" t="n">
-        <v>348.0024326625565</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y8" t="n">
-        <v>104.5536560184564</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20.03527576299844</v>
+        <v>168.215552771464</v>
       </c>
       <c r="C9" t="n">
-        <v>20.03527576299844</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>249.2442489785619</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4911,22 +4911,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>487.2836868729568</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U9" t="n">
-        <v>487.2836868729568</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V9" t="n">
-        <v>471.2443511720524</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W9" t="n">
-        <v>227.7955745279523</v>
+        <v>446.0215048700907</v>
       </c>
       <c r="X9" t="n">
-        <v>227.7955745279523</v>
+        <v>446.0215048700907</v>
       </c>
       <c r="Y9" t="n">
-        <v>20.03527576299844</v>
+        <v>336.430889791532</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4981,31 +4981,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C11" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D11" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E11" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F11" t="n">
-        <v>720.6083788665362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G11" t="n">
-        <v>477.1596022224361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H11" t="n">
-        <v>233.7108255783361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I11" t="n">
-        <v>21.10891692136039</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5063,28 +5063,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S11" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T11" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U11" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="V11" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="W11" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="X11" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y11" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="12">
@@ -5124,13 +5124,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N12" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O12" t="n">
         <v>781.4136778972854</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C13" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D13" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E13" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F13" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G13" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H13" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I13" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J13" t="n">
         <v>41.77557929797318</v>
@@ -5215,34 +5215,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q13" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R13" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S13" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="T13" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="U13" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V13" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W13" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X13" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y13" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="14">
@@ -5264,13 +5264,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="F14" t="n">
-        <v>730.8505943024719</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="G14" t="n">
-        <v>487.4018176583718</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="H14" t="n">
-        <v>243.9530410142718</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I14" t="n">
         <v>31.35113235729608</v>
@@ -5331,28 +5331,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>19.28114311021272</v>
+        <v>641.3909951282167</v>
       </c>
       <c r="C15" t="n">
-        <v>19.28114311021272</v>
+        <v>466.9379658470897</v>
       </c>
       <c r="D15" t="n">
-        <v>19.28114311021272</v>
+        <v>318.0035561858384</v>
       </c>
       <c r="E15" t="n">
-        <v>19.28114311021272</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="F15" t="n">
-        <v>19.28114311021272</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
@@ -5361,13 +5361,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M15" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N15" t="n">
-        <v>781.4136778972854</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O15" t="n">
         <v>781.4136778972854</v>
@@ -5379,28 +5379,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T15" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U15" t="n">
-        <v>670.0450503124422</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V15" t="n">
-        <v>434.8929420806995</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W15" t="n">
-        <v>434.8929420806995</v>
+        <v>849.1512938931705</v>
       </c>
       <c r="X15" t="n">
-        <v>227.0414418751666</v>
+        <v>849.1512938931705</v>
       </c>
       <c r="Y15" t="n">
-        <v>19.28114311021272</v>
+        <v>641.3909951282167</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C16" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D16" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E16" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F16" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G16" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H16" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I16" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J16" t="n">
         <v>41.77557929797318</v>
@@ -5452,34 +5452,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q16" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R16" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S16" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T16" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U16" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V16" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W16" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X16" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y16" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="17">
@@ -5492,22 +5492,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="C17" t="n">
-        <v>761.6974622895962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D17" t="n">
-        <v>761.6974622895962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E17" t="n">
-        <v>761.6974622895962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F17" t="n">
-        <v>518.2486856454962</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="G17" t="n">
-        <v>274.7999090013961</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="H17" t="n">
-        <v>31.35113235729608</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I17" t="n">
         <v>31.35113235729608</v>
@@ -5598,10 +5598,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M18" t="n">
-        <v>542.809531908403</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N18" t="n">
         <v>542.809531908403</v>
@@ -5695,10 +5695,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
         <v>19.28114311021272</v>
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>274.7999090013961</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="C20" t="n">
-        <v>31.35113235729608</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="D20" t="n">
-        <v>31.35113235729608</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="E20" t="n">
-        <v>31.35113235729608</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="F20" t="n">
-        <v>31.35113235729608</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="G20" t="n">
-        <v>31.35113235729608</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="H20" t="n">
-        <v>31.35113235729608</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="I20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5771,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="W20" t="n">
-        <v>720.6083788665362</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="X20" t="n">
-        <v>720.6083788665362</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="Y20" t="n">
-        <v>477.1596022224361</v>
+        <v>30.58726043968704</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19.28114311021272</v>
+        <v>145.0779112883388</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>145.0779112883388</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>145.0779112883388</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>145.0779112883388</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>145.0779112883388</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>145.0779112883388</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5838,10 +5838,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O21" t="n">
         <v>781.4136778972854</v>
@@ -5853,28 +5853,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>913.4938269565423</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>913.4938269565423</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>913.4938269565423</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>913.4938269565423</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V21" t="n">
-        <v>678.3417187247995</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W21" t="n">
-        <v>434.8929420806995</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="X21" t="n">
-        <v>227.0414418751666</v>
+        <v>521.0535470733607</v>
       </c>
       <c r="Y21" t="n">
-        <v>19.28114311021272</v>
+        <v>313.2932483084068</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L22" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M22" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N22" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>749.627473042513</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="C23" t="n">
-        <v>749.627473042513</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="D23" t="n">
-        <v>749.627473042513</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="E23" t="n">
-        <v>506.1786963984129</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="F23" t="n">
-        <v>262.7299197543128</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6008,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U23" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V23" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W23" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X23" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y23" t="n">
-        <v>749.627473042513</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="24">
@@ -6042,16 +6042,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>360.2295980564601</v>
+        <v>622.424473941237</v>
       </c>
       <c r="C24" t="n">
-        <v>185.7765687753331</v>
+        <v>447.97144466011</v>
       </c>
       <c r="D24" t="n">
-        <v>185.7765687753331</v>
+        <v>299.0370349988588</v>
       </c>
       <c r="E24" t="n">
-        <v>26.53911376987762</v>
+        <v>139.7995799934033</v>
       </c>
       <c r="F24" t="n">
         <v>20.03527576299844</v>
@@ -6072,10 +6072,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>542.809531908403</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N24" t="n">
         <v>542.809531908403</v>
@@ -6096,22 +6096,22 @@
         <v>790.6398109613051</v>
       </c>
       <c r="T24" t="n">
-        <v>588.4532163200711</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U24" t="n">
-        <v>360.2295980564601</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V24" t="n">
-        <v>360.2295980564601</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W24" t="n">
-        <v>360.2295980564601</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X24" t="n">
-        <v>360.2295980564601</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="Y24" t="n">
-        <v>360.2295980564601</v>
+        <v>790.6398109613051</v>
       </c>
     </row>
     <row r="25">
@@ -6166,22 +6166,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="W25" t="n">
         <v>19.28114311021272</v>
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>231.8830517671884</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="C26" t="n">
-        <v>231.8830517671884</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="D26" t="n">
-        <v>231.8830517671884</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="E26" t="n">
-        <v>231.8830517671884</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="F26" t="n">
-        <v>231.8830517671884</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="G26" t="n">
-        <v>231.8830517671884</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="H26" t="n">
-        <v>231.8830517671884</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="I26" t="n">
         <v>19.28114311021272</v>
@@ -6251,25 +6251,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="V26" t="n">
-        <v>720.6083788665362</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="W26" t="n">
-        <v>720.6083788665362</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="X26" t="n">
-        <v>477.1596022224361</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="Y26" t="n">
-        <v>233.7108255783361</v>
+        <v>284.1276524520142</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>420.237879300003</v>
+        <v>51.20856840381305</v>
       </c>
       <c r="C27" t="n">
-        <v>420.237879300003</v>
+        <v>51.20856840381305</v>
       </c>
       <c r="D27" t="n">
-        <v>420.237879300003</v>
+        <v>51.20856840381305</v>
       </c>
       <c r="E27" t="n">
-        <v>261.0004242945475</v>
+        <v>51.20856840381305</v>
       </c>
       <c r="F27" t="n">
-        <v>261.0004242945475</v>
+        <v>51.20856840381305</v>
       </c>
       <c r="G27" t="n">
-        <v>122.269598877163</v>
+        <v>51.20856840381305</v>
       </c>
       <c r="H27" t="n">
-        <v>110.334904905842</v>
+        <v>51.20856840381305</v>
       </c>
       <c r="I27" t="n">
         <v>20.03527576299844</v>
@@ -6315,10 +6315,10 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>725.4530095217538</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O27" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
         <v>964.0571555106362</v>
@@ -6327,28 +6327,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T27" t="n">
-        <v>588.4532163200711</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U27" t="n">
-        <v>588.4532163200711</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V27" t="n">
-        <v>588.4532163200711</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="W27" t="n">
-        <v>588.4532163200711</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="X27" t="n">
-        <v>588.4532163200711</v>
+        <v>51.20856840381305</v>
       </c>
       <c r="Y27" t="n">
-        <v>588.4532163200711</v>
+        <v>51.20856840381305</v>
       </c>
     </row>
     <row r="28">
@@ -6403,25 +6403,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="X28" t="n">
         <v>19.28114311021272</v>
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C29" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D29" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6482,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W29" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X29" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y29" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>384.2867411876791</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="C30" t="n">
-        <v>384.2867411876791</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="D30" t="n">
-        <v>384.2867411876791</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="E30" t="n">
-        <v>225.0492861822236</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="F30" t="n">
-        <v>132.6502787026334</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G30" t="n">
-        <v>132.6502787026334</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I30" t="n">
         <v>19.28114311021272</v>
@@ -6543,22 +6543,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>19.28114311021272</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M30" t="n">
-        <v>234.810827406191</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N30" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6567,25 +6567,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>862.8876260635219</v>
+        <v>737.7475704884623</v>
       </c>
       <c r="T30" t="n">
-        <v>862.8876260635219</v>
+        <v>737.7475704884623</v>
       </c>
       <c r="U30" t="n">
-        <v>862.8876260635219</v>
+        <v>737.7475704884623</v>
       </c>
       <c r="V30" t="n">
-        <v>627.7355178317791</v>
+        <v>737.7475704884623</v>
       </c>
       <c r="W30" t="n">
-        <v>384.2867411876791</v>
+        <v>737.7475704884623</v>
       </c>
       <c r="X30" t="n">
-        <v>384.2867411876791</v>
+        <v>529.8960702829295</v>
       </c>
       <c r="Y30" t="n">
-        <v>384.2867411876791</v>
+        <v>529.8960702829295</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>923.8270671584188</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>761.6974622895962</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="C32" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D32" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6722,28 +6722,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="W32" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="X32" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="Y32" t="n">
-        <v>964.0571555106362</v>
+        <v>358.0940480307835</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>501.9060370580465</v>
+        <v>481.7099827492369</v>
       </c>
       <c r="C33" t="n">
-        <v>327.4530077769195</v>
+        <v>481.7099827492369</v>
       </c>
       <c r="D33" t="n">
-        <v>178.5185981156682</v>
+        <v>481.7099827492369</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6801,28 +6801,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>877.9728742836473</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>877.9728742836473</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T33" t="n">
-        <v>877.9728742836473</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U33" t="n">
-        <v>877.9728742836473</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V33" t="n">
-        <v>877.9728742836473</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W33" t="n">
-        <v>877.9728742836473</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X33" t="n">
-        <v>670.1213740781145</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y33" t="n">
-        <v>670.1213740781145</v>
+        <v>481.7099827492369</v>
       </c>
     </row>
     <row r="34">
@@ -6874,19 +6874,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U34" t="n">
         <v>19.28114311021272</v>
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C35" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D35" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E35" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6965,22 +6965,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U35" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V35" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W35" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X35" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y35" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="36">
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>89.01731535111452</v>
+        <v>655.1273272985679</v>
       </c>
       <c r="C36" t="n">
-        <v>89.01731535111452</v>
+        <v>480.6742980174409</v>
       </c>
       <c r="D36" t="n">
-        <v>89.01731535111452</v>
+        <v>480.6742980174409</v>
       </c>
       <c r="E36" t="n">
-        <v>89.01731535111452</v>
+        <v>480.6742980174409</v>
       </c>
       <c r="F36" t="n">
-        <v>89.01731535111452</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G36" t="n">
-        <v>89.01731535111452</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H36" t="n">
-        <v>89.01731535111452</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I36" t="n">
         <v>20.03527576299844</v>
@@ -7020,46 +7020,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>257.8852890990952</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N36" t="n">
-        <v>496.4894350879777</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O36" t="n">
-        <v>735.0935810768601</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P36" t="n">
-        <v>917.7370586902109</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U36" t="n">
-        <v>735.8335372470253</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V36" t="n">
-        <v>500.6814290152826</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W36" t="n">
-        <v>257.2326523711826</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X36" t="n">
-        <v>257.2326523711826</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y36" t="n">
-        <v>257.2326523711826</v>
+        <v>655.1273272985679</v>
       </c>
     </row>
     <row r="37">
@@ -7114,7 +7114,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
         <v>19.28114311021272</v>
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C38" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D38" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E38" t="n">
         <v>506.1786963984129</v>
       </c>
       <c r="F38" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G38" t="n">
         <v>262.7299197543128</v>
@@ -7193,31 +7193,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U38" t="n">
         <v>749.627473042513</v>
       </c>
       <c r="V38" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W38" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X38" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y38" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="39">
@@ -7227,46 +7227,46 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.28114311021272</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>286.7936339694528</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>286.7936339694528</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>286.7936339694528</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>286.7936339694528</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>148.0628085520683</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>34.69367295964763</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M39" t="n">
-        <v>487.8483949674443</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N39" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
         <v>964.0571555106362</v>
@@ -7275,28 +7275,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U39" t="n">
-        <v>735.8335372470253</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="V39" t="n">
-        <v>500.6814290152826</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="W39" t="n">
-        <v>434.8929420806995</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="X39" t="n">
-        <v>227.0414418751666</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="Y39" t="n">
-        <v>19.28114311021272</v>
+        <v>461.2466632505798</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L40" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M40" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N40" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C41" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D41" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E41" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F41" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G41" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I41" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7430,31 +7430,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S41" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T41" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U41" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="V41" t="n">
-        <v>720.6083788665362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="W41" t="n">
-        <v>487.4018176583718</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="X41" t="n">
-        <v>487.4018176583718</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="Y41" t="n">
-        <v>487.4018176583718</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="42">
@@ -7464,19 +7464,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>19.28114311021272</v>
+        <v>638.2370107872948</v>
       </c>
       <c r="C42" t="n">
-        <v>19.28114311021272</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="D42" t="n">
-        <v>19.28114311021272</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="E42" t="n">
-        <v>19.28114311021272</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F42" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G42" t="n">
         <v>19.28114311021272</v>
@@ -7494,46 +7494,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M42" t="n">
-        <v>487.8483949674443</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N42" t="n">
-        <v>726.4525409563269</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O42" t="n">
-        <v>964.0571555106362</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P42" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S42" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T42" t="n">
-        <v>761.8705608694022</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U42" t="n">
-        <v>533.6469426057913</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V42" t="n">
-        <v>298.4948343740486</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W42" t="n">
-        <v>55.04605772994853</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X42" t="n">
-        <v>19.28114311021272</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y42" t="n">
-        <v>19.28114311021272</v>
+        <v>806.4523478073629</v>
       </c>
     </row>
     <row r="43">
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
         <v>19.28114311021272</v>
@@ -7600,19 +7600,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7631,13 +7631,13 @@
         <v>477.1596022224361</v>
       </c>
       <c r="E44" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F44" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G44" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
         <v>19.28114311021272</v>
@@ -7685,13 +7685,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W44" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X44" t="n">
-        <v>964.0571555106362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y44" t="n">
-        <v>720.6083788665362</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>501.9060370580465</v>
+        <v>411.6785506544679</v>
       </c>
       <c r="C45" t="n">
-        <v>327.4530077769195</v>
+        <v>411.6785506544679</v>
       </c>
       <c r="D45" t="n">
-        <v>178.5185981156682</v>
+        <v>411.6785506544679</v>
       </c>
       <c r="E45" t="n">
-        <v>19.28114311021272</v>
+        <v>411.6785506544679</v>
       </c>
       <c r="F45" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G45" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H45" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N45" t="n">
-        <v>726.4525409563269</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O45" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P45" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>877.9728742836473</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S45" t="n">
-        <v>877.9728742836473</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T45" t="n">
-        <v>877.9728742836473</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U45" t="n">
-        <v>877.9728742836473</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V45" t="n">
-        <v>877.9728742836473</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W45" t="n">
-        <v>877.9728742836473</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="X45" t="n">
-        <v>670.1213740781145</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="Y45" t="n">
-        <v>670.1213740781145</v>
+        <v>411.6785506544679</v>
       </c>
     </row>
     <row r="46">
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C46" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D46" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E46" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F46" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G46" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H46" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="I46" t="n">
         <v>829.5248650203655</v>
@@ -7831,25 +7831,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S46" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T46" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U46" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V46" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W46" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X46" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y46" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
   </sheetData>
@@ -7982,7 +7982,7 @@
         <v>273.6023800549303</v>
       </c>
       <c r="L2" t="n">
-        <v>287.1168215956966</v>
+        <v>289.278943979937</v>
       </c>
       <c r="M2" t="n">
         <v>230.3462332272727</v>
@@ -7994,7 +7994,7 @@
         <v>283.6107404316365</v>
       </c>
       <c r="P2" t="n">
-        <v>284.7455247652193</v>
+        <v>282.5834023809789</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,22 +8058,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>189.1918456000683</v>
+        <v>191.3539679843088</v>
       </c>
       <c r="L3" t="n">
-        <v>192.0669087898239</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>193.4844405477277</v>
       </c>
       <c r="N3" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>196.1087734543942</v>
       </c>
       <c r="P3" t="n">
-        <v>187.48693642428</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
         <v>193.4943030959713</v>
@@ -8216,7 +8216,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8295,22 +8295,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N6" t="n">
-        <v>174.6270615612551</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8532,25 +8532,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>357.7767872515269</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8772,16 +8772,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -8930,7 +8930,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -9009,16 +9009,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>383.1483227996774</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N15" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9246,13 +9246,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>312.04082470182</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
@@ -9486,13 +9486,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9720,13 +9720,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9963,13 +9963,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>244.7225752110828</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -10191,16 +10191,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M30" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10209,7 +10209,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10668,10 +10668,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>312.0431814381598</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
@@ -10680,10 +10680,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>186.7697506723097</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,22 +10902,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11142,7 +11142,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>383.1483227996774</v>
@@ -11151,13 +11151,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>295.1552315763977</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,7 +11297,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11376,25 +11376,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N45" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>312.5053919605859</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23261,25 +23261,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>10.13979328157633</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23303,16 +23303,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>150.9660159552153</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23434,10 +23434,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23455,16 +23455,16 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
-        <v>224.0165980369723</v>
+        <v>201.982606264288</v>
       </c>
       <c r="T13" t="n">
         <v>227.9455894282815</v>
@@ -23504,7 +23504,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>176.0015501456288</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G14" t="n">
         <v>174.288448637476</v>
@@ -23513,7 +23513,7 @@
         <v>98.46051323810809</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>10.13979328157632</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23574,19 +23574,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>112.2354442364965</v>
@@ -23595,7 +23595,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23619,7 +23619,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
@@ -23628,16 +23628,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>35.02723208740591</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>137.9381801596286</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -23671,10 +23671,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23692,10 +23692,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>177.2933913771695</v>
@@ -23707,7 +23707,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U16" t="n">
-        <v>286.3190293564909</v>
+        <v>264.2850375838066</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23732,7 +23732,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>164.9367954821779</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -23750,7 +23750,7 @@
         <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>10.13979328157632</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23966,10 +23966,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>182.397745374651</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23987,10 +23987,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>199.2828334142263</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24011,31 +24011,31 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24045,7 +24045,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -24063,13 +24063,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>77.83986791782461</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24093,7 +24093,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>50.10013888409016</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
@@ -24108,7 +24108,7 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>46.6450125965693</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24184,7 +24184,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24212,22 +24212,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>268.4601236753789</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24248,10 +24248,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
@@ -24260,7 +24260,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>39.0602672643945</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24272,7 +24272,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24282,19 +24282,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>138.6304127665735</v>
+        <v>26.50255120528311</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
@@ -24336,10 +24336,10 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -24406,13 +24406,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
@@ -24424,7 +24424,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>239.4980740029173</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24440,13 +24440,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>380.9243455904444</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24461,7 +24461,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>189.2921341996816</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -24491,10 +24491,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
@@ -24506,10 +24506,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24519,7 +24519,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -24528,19 +24528,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>100.4200972048886</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>58.53507313700862</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,7 +24567,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -24576,7 +24576,7 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -24585,7 +24585,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24643,7 +24643,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>177.2933913771695</v>
@@ -24655,7 +24655,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24664,7 +24664,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>178.6847310553635</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24677,22 +24677,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>169.6449844288197</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24722,16 +24722,16 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>138.6760617849701</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
@@ -24746,7 +24746,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24756,7 +24756,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -24765,19 +24765,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>53.59419498858961</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -24807,7 +24807,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>47.79451608452884</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
@@ -24816,13 +24816,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24856,10 +24856,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I31" t="n">
-        <v>115.622687458563</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K31" t="n">
         <v>22.26949182588285</v>
@@ -24892,7 +24892,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24914,16 +24914,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>182.3977453746509</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
-        <v>124.2586028933485</v>
+        <v>270.8624047773015</v>
       </c>
       <c r="D32" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -24938,7 +24938,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24962,10 +24962,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
@@ -24983,7 +24983,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="33">
@@ -24993,31 +24993,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>95.23529433211596</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,10 +25041,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>14.93439573792415</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
@@ -25059,10 +25059,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25114,22 +25114,22 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
-        <v>224.0165980369723</v>
+        <v>179.7131144384051</v>
       </c>
       <c r="T34" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25151,7 +25151,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>182.397745374651</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25163,7 +25163,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G35" t="n">
         <v>415.302737515135</v>
@@ -25175,7 +25175,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25205,7 +25205,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U35" t="n">
         <v>10.33136403017744</v>
@@ -25214,7 +25214,7 @@
         <v>86.73796959247585</v>
       </c>
       <c r="W35" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -25230,10 +25230,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25242,16 +25242,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>28.01217461260804</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>21.10441365918017</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25278,7 +25278,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
@@ -25287,19 +25287,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25354,10 +25354,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>130.2684670434958</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25397,13 +25397,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
         <v>98.46051323810809</v>
@@ -25433,22 +25433,22 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>156.5945010984978</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>39.0602672643945</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25470,7 +25470,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25482,16 +25482,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>74.88481962673238</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25515,10 +25515,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
@@ -25527,16 +25527,16 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>186.5643810956823</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25597,7 +25597,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
         <v>227.9455894282815</v>
@@ -25609,7 +25609,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25625,13 +25625,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -25646,10 +25646,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25670,13 +25670,13 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>223.0958495641314</v>
@@ -25685,16 +25685,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>118.3664731213303</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>151.9490329357426</v>
       </c>
     </row>
     <row r="42">
@@ -25704,22 +25704,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>112.2354442364965</v>
@@ -25752,28 +25752,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>170.365719729939</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>149.811770303707</v>
       </c>
     </row>
     <row r="43">
@@ -25798,7 +25798,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H43" t="n">
         <v>162.2271725074396</v>
@@ -25840,7 +25840,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25871,16 +25871,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>169.6449844288197</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G44" t="n">
-        <v>203.0173518716929</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25925,13 +25925,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y44" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25941,31 +25941,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>96.31796450195137</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25989,7 +25989,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>14.93439573792415</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -26004,13 +26004,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26041,7 +26041,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I46" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189029</v>
       </c>
       <c r="J46" t="n">
         <v>93.35918011667277</v>
@@ -26071,7 +26071,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S46" t="n">
-        <v>90.82963045160426</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T46" t="n">
         <v>227.9455894282815</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>348937.4123157982</v>
+        <v>348937.4123157983</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>348937.4123157982</v>
+        <v>348937.4123157983</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>348937.4123157983</v>
+        <v>348937.4123157982</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>348937.4123157983</v>
+        <v>348937.4123157982</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>348937.4123157983</v>
+        <v>348937.4123157982</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>348937.4123157982</v>
+        <v>348937.4123157983</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>348937.4123157982</v>
+        <v>348937.4123157983</v>
       </c>
     </row>
   </sheetData>
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049984</v>
+        <v>574729.2389049983</v>
       </c>
       <c r="C2" t="n">
         <v>574729.2389049982</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049984</v>
       </c>
       <c r="E2" t="n">
         <v>232624.9415438654</v>
@@ -26344,10 +26344,10 @@
         <v>232624.9415438654</v>
       </c>
       <c r="M2" t="n">
-        <v>232624.9415438653</v>
+        <v>232624.9415438654</v>
       </c>
       <c r="N2" t="n">
-        <v>232624.9415438653</v>
+        <v>232624.9415438654</v>
       </c>
       <c r="O2" t="n">
         <v>232624.9415438654</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17933.27925940139</v>
+        <v>17933.27925940137</v>
       </c>
       <c r="C3" t="n">
         <v>60576.32218666811</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>329956.5536505856</v>
+        <v>329658.5476262335</v>
       </c>
       <c r="C4" t="n">
-        <v>279533.6333046067</v>
+        <v>279125.0601321634</v>
       </c>
       <c r="D4" t="n">
-        <v>279533.6333046067</v>
+        <v>279125.0601321634</v>
       </c>
       <c r="E4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="F4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="G4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="H4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="I4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="J4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="K4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="L4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="M4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="N4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="O4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="P4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>189958.2442312065</v>
+        <v>190256.2502555584</v>
       </c>
       <c r="C6" t="n">
-        <v>186338.0146499617</v>
+        <v>186746.587822405</v>
       </c>
       <c r="D6" t="n">
-        <v>246914.3368366302</v>
+        <v>247322.9100090733</v>
       </c>
       <c r="E6" t="n">
-        <v>217383.1671099565</v>
+        <v>217791.7402823998</v>
       </c>
       <c r="F6" t="n">
-        <v>217383.1671099565</v>
+        <v>217791.7402823998</v>
       </c>
       <c r="G6" t="n">
-        <v>217383.1671099564</v>
+        <v>217791.7402823998</v>
       </c>
       <c r="H6" t="n">
-        <v>217383.1671099564</v>
+        <v>217791.7402823997</v>
       </c>
       <c r="I6" t="n">
-        <v>217383.1671099564</v>
+        <v>217791.7402823997</v>
       </c>
       <c r="J6" t="n">
-        <v>203381.9349696772</v>
+        <v>203790.5081421204</v>
       </c>
       <c r="K6" t="n">
-        <v>169126.2141763238</v>
+        <v>169534.7873487672</v>
       </c>
       <c r="L6" t="n">
-        <v>217383.1671099565</v>
+        <v>217791.7402823997</v>
       </c>
       <c r="M6" t="n">
-        <v>217383.1671099564</v>
+        <v>217791.7402823997</v>
       </c>
       <c r="N6" t="n">
-        <v>217383.1671099564</v>
+        <v>217791.7402823997</v>
       </c>
       <c r="O6" t="n">
-        <v>217383.1671099565</v>
+        <v>217791.7402823998</v>
       </c>
       <c r="P6" t="n">
-        <v>217383.1671099564</v>
+        <v>217791.7402823997</v>
       </c>
     </row>
   </sheetData>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>329.2213126535308</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27388,10 +27388,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>359.7422101897477</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>361.7902085051853</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -27427,19 +27427,19 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>155.5075405762956</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>169.5833205541816</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>197.8331238978867</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>274.2397294601852</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>324.2859164222958</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27458,7 +27458,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>119.195969978366</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27467,19 +27467,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>91.55668338343412</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>65.10160868453272</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>46.64530514269338</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>118.1706420938881</v>
@@ -27521,10 +27521,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>152.2604561935277</v>
       </c>
       <c r="Y3" t="n">
-        <v>159.2954515515985</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27543,7 +27543,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>120.2720530811007</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27558,10 +27558,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>39.84665110672302</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,7 +27576,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>32.64951424174463</v>
@@ -27594,10 +27594,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>250.9666663193488</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>233.0104693266412</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27622,13 +27622,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>352.8864698128427</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27658,16 +27658,16 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -27676,7 +27676,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>119.2124069404209</v>
       </c>
       <c r="X5" t="n">
         <v>128.71681180081</v>
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>121.2443095168949</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27758,7 +27758,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>160.484111070505</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27780,7 +27780,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>109.3276159129805</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,16 +27789,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>51.30969674795439</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27813,7 +27813,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27859,13 +27859,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>179.6356836433646</v>
       </c>
       <c r="F8" t="n">
-        <v>337.7589954776852</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -27910,7 +27910,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27929,13 +27929,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -27953,7 +27953,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27983,13 +27983,13 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>216.9216448055299</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>10.68069428326055</v>
@@ -27998,7 +27998,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>97.18798684953126</v>
       </c>
     </row>
     <row r="10">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28032,10 +28032,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>68.60374760888197</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -34702,7 +34702,7 @@
         <v>53.51252900994975</v>
       </c>
       <c r="L2" t="n">
-        <v>51.35040662570935</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34714,7 +34714,7 @@
         <v>53.51252900994975</v>
       </c>
       <c r="P2" t="n">
-        <v>53.51252900994975</v>
+        <v>51.35040662570938</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,22 +34778,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>53.51252900994975</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>51.35040662570935</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
       <c r="P3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>53.51252900994975</v>
@@ -35015,22 +35015,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N6" t="n">
-        <v>43.28534947792182</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>226.4350751681936</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35416,7 +35416,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N11" t="n">
         <v>207.9338608153932</v>
@@ -35492,16 +35492,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
@@ -35653,7 +35653,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N14" t="n">
         <v>207.9338608153932</v>
@@ -35729,16 +35729,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
+        <v>161.1784674257276</v>
+      </c>
+      <c r="N15" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N15" t="n">
-        <v>169.9067907798016</v>
-      </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
@@ -35966,13 +35966,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>169.9067907798017</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
@@ -36206,13 +36206,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
@@ -36440,13 +36440,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36683,13 +36683,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>113.3808631277494</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36911,16 +36911,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M30" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -36929,7 +36929,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37388,10 +37388,10 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9091475161415</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
@@ -37400,10 +37400,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>46.78797658628819</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37549,10 +37549,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M38" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N38" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O38" t="n">
         <v>150.7019698410586</v>
@@ -37622,22 +37622,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>241.0142888776591</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37862,7 +37862,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>241.0142888776591</v>
@@ -37871,13 +37871,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38096,25 +38096,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>169.9091475161414</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_28.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1764552.986547959</v>
+        <v>1766876.658361827</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14661612.74404855</v>
+        <v>14661612.74404854</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5515824.279428586</v>
+        <v>5515824.279428588</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>3.015063725959893</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -677,10 +679,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -701,25 +703,25 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="T2" t="n">
         <v>53.51252900994975</v>
       </c>
       <c r="U2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>24.95505229511726</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -738,28 +740,28 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
       <c r="H3" t="n">
-        <v>47.13383555196375</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="S3" t="n">
-        <v>53.51252900994975</v>
+        <v>46.38724422570589</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -801,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -823,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>26.16190956546852</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -838,10 +840,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>53.51252900994975</v>
@@ -874,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1.170977004479181</v>
       </c>
       <c r="W4" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -905,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>208.2638363878124</v>
       </c>
       <c r="G5" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -917,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -944,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -953,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W5" t="n">
-        <v>230.0285617769921</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1060,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>37.10634673358869</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1078,7 +1080,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1111,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,31 +1132,31 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>202.2946864288972</v>
-      </c>
       <c r="F8" t="n">
-        <v>241.0142888776591</v>
+        <v>40.47627913313517</v>
       </c>
       <c r="G8" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1178,7 +1180,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1212,7 +1214,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -1221,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>52.65774996597684</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1230,10 +1232,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1260,7 +1262,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1272,13 +1274,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>108.4947089277731</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1312,10 +1314,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1330,10 +1332,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>17.55829564281241</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1373,25 +1375,25 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.809496073036132</v>
+      </c>
+      <c r="F11" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1415,16 +1417,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>100.3796369526212</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1446,19 +1448,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1470,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1497,25 +1499,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>12.04858895692291</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1534,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1567,16 +1569,16 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1616,61 +1618,61 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G14" t="n">
+      <c r="W14" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H14" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I14" t="n">
-        <v>200.3360962888296</v>
-      </c>
-      <c r="J14" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1686,10 +1688,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -1698,16 +1700,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>79.73605578874087</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1731,28 +1733,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>113.756803001291</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1783,10 +1785,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
         <v>22.26949182588285</v>
@@ -1804,10 +1806,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -1819,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1847,22 +1849,22 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>241.0142888776591</v>
+        <v>81.0053776549329</v>
       </c>
       <c r="H17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>200.3360962888296</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -1889,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1920,31 +1922,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>145.4467082856156</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>37.18582309281558</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1986,10 +1988,10 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2053,10 +2055,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2093,16 +2095,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>11.19305615617957</v>
+        <v>58.39471844666272</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2126,16 +2128,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>241.0142888776591</v>
@@ -2157,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2166,22 +2168,22 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>125.2132019625774</v>
       </c>
       <c r="H21" t="n">
-        <v>34.39557631867186</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2217,10 +2219,10 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>133.186967585368</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2281,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -2324,22 +2326,22 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>71.01467844038824</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2360,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -2375,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2384,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2394,19 +2396,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>118.5666611881008</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2418,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2442,22 +2444,22 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>135.4141600157168</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2500,7 +2502,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -2518,10 +2520,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>110.9174757594851</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2536,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2573,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V26" t="n">
         <v>241.0142888776591</v>
@@ -2618,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2631,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>60.83777802708705</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2640,22 +2642,22 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>30.86155971440646</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2679,25 +2681,25 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2752,7 +2754,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
         <v>86.16204325169439</v>
@@ -2776,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2798,13 +2800,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2834,25 +2836,25 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>70.34400780127524</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2868,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2880,16 +2882,16 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>48.26703577173995</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,25 +2918,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>123.888655019309</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3004,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3029,10 +3031,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
-        <v>94.41048699370604</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3071,13 +3073,13 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3105,25 +3107,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>62.409786123285</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3153,16 +3155,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>90.0851035971169</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -3174,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3226,16 +3228,16 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S34" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3308,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -3317,19 +3319,19 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V35" t="n">
+      <c r="X35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3345,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3354,19 +3356,19 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>117.0570377807758</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3393,25 +3395,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3469,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3503,70 +3505,70 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T38" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U38" t="n">
+        <v>21.18375537072436</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F38" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R38" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S38" t="n">
-        <v>52.42556848774752</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3582,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3594,16 +3596,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>14.5118132246827</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3630,22 +3632,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>155.5825568932142</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3740,10 +3742,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3761,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3782,13 +3784,13 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3803,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>234.288905720311</v>
+        <v>200.3360962888297</v>
       </c>
     </row>
     <row r="42">
@@ -3816,13 +3818,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>167.2507538491949</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -3831,10 +3833,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3885,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>55.8709254735974</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3901,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3952,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3974,76 +3976,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R44" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S44" t="n">
+        <v>52.42556848774752</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X44" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4053,7 +4055,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -4062,22 +4064,22 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>121.9333552767668</v>
       </c>
       <c r="F45" t="n">
-        <v>48.75124789143251</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4101,13 +4103,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -4153,37 +4155,37 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4304,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>26.68381369134799</v>
+        <v>92.8068625444412</v>
       </c>
       <c r="C2" t="n">
-        <v>26.68381369134799</v>
+        <v>92.8068625444412</v>
       </c>
       <c r="D2" t="n">
-        <v>26.68381369134799</v>
+        <v>92.8068625444412</v>
       </c>
       <c r="E2" t="n">
-        <v>26.68381369134799</v>
+        <v>92.8068625444412</v>
       </c>
       <c r="F2" t="n">
-        <v>19.73831294214452</v>
+        <v>85.86136179523773</v>
       </c>
       <c r="G2" t="n">
-        <v>4.28100232079598</v>
+        <v>70.40405117388919</v>
       </c>
       <c r="H2" t="n">
-        <v>4.28100232079598</v>
+        <v>70.40405117388919</v>
       </c>
       <c r="I2" t="n">
-        <v>4.28100232079598</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="J2" t="n">
         <v>4.28100232079598</v>
@@ -4337,43 +4339,43 @@
         <v>110.2358097604965</v>
       </c>
       <c r="M2" t="n">
-        <v>110.2358097604965</v>
+        <v>163.2132134803467</v>
       </c>
       <c r="N2" t="n">
-        <v>110.2358097604965</v>
+        <v>214.050116039799</v>
       </c>
       <c r="O2" t="n">
-        <v>163.2132134803467</v>
+        <v>214.050116039799</v>
       </c>
       <c r="P2" t="n">
         <v>214.050116039799</v>
       </c>
       <c r="Q2" t="n">
-        <v>214.050116039799</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="R2" t="n">
-        <v>214.050116039799</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="S2" t="n">
-        <v>214.050116039799</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="T2" t="n">
-        <v>159.9970564337892</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="U2" t="n">
-        <v>105.9439968277793</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="V2" t="n">
-        <v>51.89093722176946</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="W2" t="n">
-        <v>26.68381369134799</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="X2" t="n">
-        <v>26.68381369134799</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="Y2" t="n">
-        <v>26.68381369134799</v>
+        <v>95.85238145955221</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>105.9439968277793</v>
+        <v>113.1412541856014</v>
       </c>
       <c r="C3" t="n">
-        <v>51.89093722176946</v>
+        <v>113.1412541856014</v>
       </c>
       <c r="D3" t="n">
-        <v>51.89093722176946</v>
+        <v>113.1412541856014</v>
       </c>
       <c r="E3" t="n">
-        <v>51.89093722176946</v>
+        <v>113.1412541856014</v>
       </c>
       <c r="F3" t="n">
-        <v>51.89093722176946</v>
+        <v>113.1412541856014</v>
       </c>
       <c r="G3" t="n">
-        <v>51.89093722176946</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="H3" t="n">
-        <v>4.28100232079598</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="I3" t="n">
-        <v>4.28100232079598</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="J3" t="n">
         <v>4.28100232079598</v>
       </c>
       <c r="K3" t="n">
-        <v>57.25840604064623</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="L3" t="n">
-        <v>57.25840604064623</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="M3" t="n">
-        <v>108.0953086000985</v>
+        <v>55.11790488024824</v>
       </c>
       <c r="N3" t="n">
         <v>108.0953086000985</v>
       </c>
       <c r="O3" t="n">
-        <v>161.0727123199487</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="P3" t="n">
         <v>161.0727123199487</v>
@@ -4431,28 +4433,28 @@
         <v>214.050116039799</v>
       </c>
       <c r="R3" t="n">
-        <v>214.050116039799</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="S3" t="n">
-        <v>159.9970564337892</v>
+        <v>113.1412541856014</v>
       </c>
       <c r="T3" t="n">
-        <v>159.9970564337892</v>
+        <v>113.1412541856014</v>
       </c>
       <c r="U3" t="n">
-        <v>159.9970564337892</v>
+        <v>113.1412541856014</v>
       </c>
       <c r="V3" t="n">
-        <v>159.9970564337892</v>
+        <v>113.1412541856014</v>
       </c>
       <c r="W3" t="n">
-        <v>159.9970564337892</v>
+        <v>113.1412541856014</v>
       </c>
       <c r="X3" t="n">
-        <v>105.9439968277793</v>
+        <v>113.1412541856014</v>
       </c>
       <c r="Y3" t="n">
-        <v>105.9439968277793</v>
+        <v>113.1412541856014</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>105.9439968277793</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="C4" t="n">
-        <v>105.9439968277793</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="D4" t="n">
-        <v>105.9439968277793</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="E4" t="n">
-        <v>79.51782554952828</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="F4" t="n">
-        <v>79.51782554952828</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="G4" t="n">
-        <v>79.51782554952828</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="H4" t="n">
-        <v>79.51782554952828</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="I4" t="n">
-        <v>79.51782554952828</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="J4" t="n">
-        <v>79.51782554952828</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="K4" t="n">
-        <v>79.51782554952828</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="L4" t="n">
-        <v>106.8319505572413</v>
+        <v>31.59512732850896</v>
       </c>
       <c r="M4" t="n">
-        <v>146.0199887494634</v>
+        <v>70.78316552073113</v>
       </c>
       <c r="N4" t="n">
-        <v>189.7108394048997</v>
+        <v>114.4740161761674</v>
       </c>
       <c r="O4" t="n">
-        <v>214.050116039799</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="P4" t="n">
-        <v>214.050116039799</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="Q4" t="n">
-        <v>159.9970564337892</v>
+        <v>82.01130316959576</v>
       </c>
       <c r="R4" t="n">
-        <v>159.9970564337892</v>
+        <v>82.01130316959576</v>
       </c>
       <c r="S4" t="n">
-        <v>159.9970564337892</v>
+        <v>82.01130316959576</v>
       </c>
       <c r="T4" t="n">
-        <v>159.9970564337892</v>
+        <v>82.01130316959576</v>
       </c>
       <c r="U4" t="n">
-        <v>159.9970564337892</v>
+        <v>82.01130316959576</v>
       </c>
       <c r="V4" t="n">
-        <v>159.9970564337892</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="W4" t="n">
-        <v>105.9439968277793</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="X4" t="n">
-        <v>105.9439968277793</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="Y4" t="n">
-        <v>105.9439968277793</v>
+        <v>80.82849811456629</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>41.68395448076474</v>
+        <v>485.167420504237</v>
       </c>
       <c r="C5" t="n">
-        <v>41.68395448076474</v>
+        <v>485.167420504237</v>
       </c>
       <c r="D5" t="n">
-        <v>41.68395448076474</v>
+        <v>485.167420504237</v>
       </c>
       <c r="E5" t="n">
-        <v>41.68395448076474</v>
+        <v>485.167420504237</v>
       </c>
       <c r="F5" t="n">
-        <v>34.73845373156126</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4592,25 +4594,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>517.4848137278872</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U5" t="n">
-        <v>517.4848137278872</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V5" t="n">
-        <v>517.4848137278872</v>
+        <v>485.167420504237</v>
       </c>
       <c r="W5" t="n">
-        <v>285.1327311248648</v>
+        <v>485.167420504237</v>
       </c>
       <c r="X5" t="n">
-        <v>41.68395448076474</v>
+        <v>485.167420504237</v>
       </c>
       <c r="Y5" t="n">
-        <v>41.68395448076474</v>
+        <v>485.167420504237</v>
       </c>
     </row>
     <row r="6">
@@ -4653,16 +4655,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>961.308225475175</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="C7" t="n">
-        <v>961.308225475175</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="D7" t="n">
-        <v>961.308225475175</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="E7" t="n">
-        <v>923.8270671584188</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="F7" t="n">
-        <v>923.8270671584188</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="G7" t="n">
-        <v>923.8270671584188</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="H7" t="n">
-        <v>923.8270671584188</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="I7" t="n">
-        <v>923.8270671584188</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J7" t="n">
-        <v>829.5248650203655</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L7" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M7" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N7" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O7" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>961.308225475175</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>961.308225475175</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>961.308225475175</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>961.308225475175</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>961.308225475175</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>961.308225475175</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>961.308225475175</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="W7" t="n">
-        <v>961.308225475175</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="X7" t="n">
-        <v>961.308225475175</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="Y7" t="n">
-        <v>961.308225475175</v>
+        <v>136.0777814360265</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>710.516763498309</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="C8" t="n">
-        <v>710.516763498309</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="D8" t="n">
-        <v>710.516763498309</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="E8" t="n">
-        <v>506.1786963984129</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="F8" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4826,28 +4828,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>168.215552771464</v>
+        <v>486.9119902784999</v>
       </c>
       <c r="C9" t="n">
-        <v>168.215552771464</v>
+        <v>312.4589609973729</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>163.5245513361216</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>163.5245513361216</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4887,19 +4889,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N9" t="n">
-        <v>613.2059550252818</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4908,25 +4910,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U9" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V9" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W9" t="n">
-        <v>446.0215048700907</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X9" t="n">
-        <v>446.0215048700907</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y9" t="n">
-        <v>336.430889791532</v>
+        <v>655.1273272985679</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>136.0777814360265</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="C10" t="n">
-        <v>136.0777814360265</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="D10" t="n">
-        <v>136.0777814360265</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="E10" t="n">
-        <v>136.0777814360265</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="F10" t="n">
-        <v>136.0777814360265</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="G10" t="n">
-        <v>136.0777814360265</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="H10" t="n">
-        <v>136.0777814360265</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="I10" t="n">
-        <v>136.0777814360265</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4978,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>136.0777814360265</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R10" t="n">
-        <v>136.0777814360265</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S10" t="n">
-        <v>136.0777814360265</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T10" t="n">
-        <v>136.0777814360265</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U10" t="n">
-        <v>136.0777814360265</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="V10" t="n">
-        <v>136.0777814360265</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="W10" t="n">
-        <v>136.0777814360265</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="X10" t="n">
-        <v>136.0777814360265</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="Y10" t="n">
-        <v>136.0777814360265</v>
+        <v>64.03213664411894</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>274.7999090013961</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C11" t="n">
-        <v>274.7999090013961</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D11" t="n">
-        <v>31.35113235729608</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E11" t="n">
-        <v>31.35113235729608</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="F11" t="n">
-        <v>31.35113235729608</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G11" t="n">
-        <v>31.35113235729608</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H11" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I11" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5063,28 +5065,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S11" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T11" t="n">
-        <v>376.1934816808115</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U11" t="n">
-        <v>274.7999090013961</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V11" t="n">
-        <v>274.7999090013961</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W11" t="n">
-        <v>274.7999090013961</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X11" t="n">
-        <v>274.7999090013961</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y11" t="n">
-        <v>274.7999090013961</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19.28114311021272</v>
+        <v>474.7416984028202</v>
       </c>
       <c r="C12" t="n">
-        <v>19.28114311021272</v>
+        <v>474.7416984028202</v>
       </c>
       <c r="D12" t="n">
-        <v>19.28114311021272</v>
+        <v>325.807288741569</v>
       </c>
       <c r="E12" t="n">
-        <v>19.28114311021272</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
@@ -5124,13 +5126,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M12" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N12" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O12" t="n">
         <v>781.4136778972854</v>
@@ -5145,25 +5147,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S12" t="n">
-        <v>689.4702815141908</v>
+        <v>850.7173341878422</v>
       </c>
       <c r="T12" t="n">
-        <v>487.2836868729568</v>
+        <v>850.7173341878422</v>
       </c>
       <c r="U12" t="n">
-        <v>259.0600686093459</v>
+        <v>850.7173341878422</v>
       </c>
       <c r="V12" t="n">
-        <v>23.90796037760316</v>
+        <v>850.7173341878422</v>
       </c>
       <c r="W12" t="n">
-        <v>19.28114311021272</v>
+        <v>850.7173341878422</v>
       </c>
       <c r="X12" t="n">
-        <v>19.28114311021272</v>
+        <v>850.7173341878422</v>
       </c>
       <c r="Y12" t="n">
-        <v>19.28114311021272</v>
+        <v>642.9570354228883</v>
       </c>
     </row>
     <row r="13">
@@ -5173,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C13" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D13" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E13" t="n">
         <v>41.77557929797318</v>
@@ -5215,34 +5217,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T13" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U13" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V13" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W13" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X13" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y13" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C14" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D14" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E14" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F14" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G14" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H14" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5303,25 +5305,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S14" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T14" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U14" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V14" t="n">
-        <v>964.0571555106362</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="W14" t="n">
-        <v>964.0571555106362</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="X14" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y14" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>641.3909951282167</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="C15" t="n">
-        <v>466.9379658470897</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="D15" t="n">
-        <v>318.0035561858384</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="E15" t="n">
-        <v>158.7661011803829</v>
+        <v>99.82261360389037</v>
       </c>
       <c r="F15" t="n">
-        <v>158.7661011803829</v>
+        <v>99.82261360389037</v>
       </c>
       <c r="G15" t="n">
-        <v>20.03527576299844</v>
+        <v>99.82261360389037</v>
       </c>
       <c r="H15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
@@ -5361,46 +5363,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N15" t="n">
-        <v>542.809531908403</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O15" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P15" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S15" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T15" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U15" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V15" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="W15" t="n">
-        <v>849.1512938931705</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="X15" t="n">
-        <v>849.1512938931705</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="Y15" t="n">
-        <v>641.3909951282167</v>
+        <v>259.0600686093459</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C16" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D16" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E16" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F16" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G16" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H16" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I16" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J16" t="n">
         <v>41.77557929797318</v>
@@ -5452,34 +5454,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U16" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V16" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W16" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X16" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y16" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="E17" t="n">
-        <v>964.0571555106362</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="F17" t="n">
-        <v>720.6083788665362</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="G17" t="n">
-        <v>477.1596022224361</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H17" t="n">
-        <v>233.7108255783361</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I17" t="n">
         <v>31.35113235729608</v>
@@ -5537,28 +5539,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>964.0571555106362</v>
+        <v>380.2300195200815</v>
       </c>
       <c r="C18" t="n">
-        <v>817.1412885554689</v>
+        <v>205.7769902389545</v>
       </c>
       <c r="D18" t="n">
-        <v>668.2068788942177</v>
+        <v>56.84258057770322</v>
       </c>
       <c r="E18" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5598,19 +5600,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N18" t="n">
-        <v>542.809531908403</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5634,10 +5636,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X18" t="n">
-        <v>964.0571555106362</v>
+        <v>756.2056553051034</v>
       </c>
       <c r="Y18" t="n">
-        <v>964.0571555106362</v>
+        <v>548.4453565401495</v>
       </c>
     </row>
     <row r="19">
@@ -5701,7 +5703,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
         <v>19.28114311021272</v>
@@ -5726,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>30.58726043968704</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="C20" t="n">
-        <v>30.58726043968704</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="D20" t="n">
-        <v>30.58726043968704</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="E20" t="n">
-        <v>30.58726043968704</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="F20" t="n">
-        <v>30.58726043968704</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="G20" t="n">
-        <v>30.58726043968704</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="H20" t="n">
-        <v>30.58726043968704</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="I20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5774,28 +5776,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S20" t="n">
-        <v>742.8341567219593</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T20" t="n">
-        <v>517.4848137278872</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U20" t="n">
-        <v>274.0360370837871</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V20" t="n">
-        <v>30.58726043968704</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="W20" t="n">
-        <v>30.58726043968704</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="X20" t="n">
-        <v>30.58726043968704</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="Y20" t="n">
-        <v>30.58726043968704</v>
+        <v>333.7844730889342</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>145.0779112883388</v>
+        <v>304.9965798960495</v>
       </c>
       <c r="C21" t="n">
-        <v>145.0779112883388</v>
+        <v>304.9965798960495</v>
       </c>
       <c r="D21" t="n">
-        <v>145.0779112883388</v>
+        <v>304.9965798960495</v>
       </c>
       <c r="E21" t="n">
-        <v>145.0779112883388</v>
+        <v>145.759124890594</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0779112883388</v>
+        <v>145.759124890594</v>
       </c>
       <c r="G21" t="n">
-        <v>145.0779112883388</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5841,7 +5843,7 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N21" t="n">
-        <v>613.2059550252818</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O21" t="n">
         <v>781.4136778972854</v>
@@ -5865,16 +5867,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V21" t="n">
-        <v>728.9050472788936</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W21" t="n">
-        <v>728.9050472788936</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X21" t="n">
-        <v>521.0535470733607</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y21" t="n">
-        <v>313.2932483084068</v>
+        <v>304.9965798960495</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U22" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V22" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="W22" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="X22" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="Y22" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>559.1338160830064</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="C23" t="n">
-        <v>559.1338160830064</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="D23" t="n">
-        <v>559.1338160830064</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="E23" t="n">
-        <v>559.1338160830064</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="F23" t="n">
-        <v>559.1338160830064</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="G23" t="n">
-        <v>315.6850394389064</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="H23" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S23" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T23" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U23" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V23" t="n">
-        <v>802.5825927271064</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="W23" t="n">
-        <v>802.5825927271064</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="X23" t="n">
-        <v>802.5825927271064</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="Y23" t="n">
-        <v>559.1338160830064</v>
+        <v>569.2254314512334</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>622.424473941237</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>447.97144466011</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>299.0370349988588</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>139.7995799934033</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6075,43 +6077,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T24" t="n">
-        <v>790.6398109613051</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U24" t="n">
-        <v>790.6398109613051</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V24" t="n">
-        <v>790.6398109613051</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W24" t="n">
-        <v>790.6398109613051</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X24" t="n">
-        <v>790.6398109613051</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y24" t="n">
-        <v>790.6398109613051</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="F25" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="G25" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="H25" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="I25" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="J25" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="K25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L25" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M25" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N25" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q25" t="n">
-        <v>66.78106667958005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R25" t="n">
-        <v>66.78106667958005</v>
+        <v>852.019301208126</v>
       </c>
       <c r="S25" t="n">
-        <v>66.78106667958005</v>
+        <v>852.019301208126</v>
       </c>
       <c r="T25" t="n">
-        <v>66.78106667958005</v>
+        <v>852.019301208126</v>
       </c>
       <c r="U25" t="n">
-        <v>66.78106667958005</v>
+        <v>852.019301208126</v>
       </c>
       <c r="V25" t="n">
-        <v>66.78106667958005</v>
+        <v>852.019301208126</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>284.1276524520142</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>284.1276524520142</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
         <v>19.28114311021272</v>
@@ -6251,25 +6253,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>527.5764290961142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>527.5764290961142</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V26" t="n">
-        <v>284.1276524520142</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W26" t="n">
-        <v>284.1276524520142</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X26" t="n">
-        <v>284.1276524520142</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y26" t="n">
-        <v>284.1276524520142</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>51.20856840381305</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="C27" t="n">
-        <v>51.20856840381305</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="D27" t="n">
-        <v>51.20856840381305</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="E27" t="n">
-        <v>51.20856840381305</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F27" t="n">
-        <v>51.20856840381305</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G27" t="n">
-        <v>51.20856840381305</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H27" t="n">
-        <v>51.20856840381305</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6312,10 +6314,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N27" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O27" t="n">
         <v>781.4136778972854</v>
@@ -6327,28 +6329,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V27" t="n">
-        <v>259.0600686093459</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W27" t="n">
-        <v>259.0600686093459</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="X27" t="n">
-        <v>51.20856840381305</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="Y27" t="n">
-        <v>51.20856840381305</v>
+        <v>728.9050472788936</v>
       </c>
     </row>
     <row r="28">
@@ -6400,34 +6402,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q28" t="n">
-        <v>66.78106667958005</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R28" t="n">
-        <v>66.78106667958005</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S28" t="n">
-        <v>66.78106667958005</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T28" t="n">
-        <v>66.78106667958005</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U28" t="n">
-        <v>66.78106667958005</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="V28" t="n">
-        <v>66.78106667958005</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="W28" t="n">
-        <v>66.78106667958005</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C29" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D29" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
         <v>19.28114311021272</v>
@@ -6482,16 +6484,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S29" t="n">
-        <v>731.528039392485</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T29" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U29" t="n">
         <v>506.1786963984129</v>
@@ -6500,13 +6502,13 @@
         <v>506.1786963984129</v>
       </c>
       <c r="W29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>361.6807332628614</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="C30" t="n">
-        <v>361.6807332628614</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="D30" t="n">
-        <v>361.6807332628614</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="E30" t="n">
-        <v>361.6807332628614</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="F30" t="n">
-        <v>361.6807332628614</v>
+        <v>206.7665501152133</v>
       </c>
       <c r="G30" t="n">
-        <v>222.9499078454769</v>
+        <v>68.03572469782884</v>
       </c>
       <c r="H30" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
         <v>19.28114311021272</v>
@@ -6546,46 +6548,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>737.7475704884623</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T30" t="n">
-        <v>737.7475704884623</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U30" t="n">
-        <v>737.7475704884623</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V30" t="n">
-        <v>737.7475704884623</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="W30" t="n">
-        <v>737.7475704884623</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="X30" t="n">
-        <v>529.8960702829295</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="Y30" t="n">
-        <v>529.8960702829295</v>
+        <v>353.3011080883284</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L31" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M31" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N31" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>114.6452713866835</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S32" t="n">
-        <v>601.5428246748836</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T32" t="n">
-        <v>601.5428246748836</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U32" t="n">
-        <v>601.5428246748836</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V32" t="n">
-        <v>601.5428246748836</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W32" t="n">
-        <v>601.5428246748836</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X32" t="n">
-        <v>601.5428246748836</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y32" t="n">
-        <v>358.0940480307835</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="33">
@@ -6753,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>481.7099827492369</v>
+        <v>502.6601697108322</v>
       </c>
       <c r="C33" t="n">
-        <v>481.7099827492369</v>
+        <v>328.2071404297052</v>
       </c>
       <c r="D33" t="n">
-        <v>481.7099827492369</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="E33" t="n">
-        <v>418.6697947459187</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F33" t="n">
-        <v>272.1352367728036</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G33" t="n">
-        <v>133.4044113554191</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H33" t="n">
         <v>20.03527576299844</v>
@@ -6786,13 +6788,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>542.809531908403</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P33" t="n">
         <v>964.0571555106362</v>
@@ -6801,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>689.4702815141908</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U33" t="n">
-        <v>689.4702815141908</v>
+        <v>670.8755067309003</v>
       </c>
       <c r="V33" t="n">
-        <v>689.4702815141908</v>
+        <v>670.8755067309003</v>
       </c>
       <c r="W33" t="n">
-        <v>689.4702815141908</v>
+        <v>670.8755067309003</v>
       </c>
       <c r="X33" t="n">
-        <v>689.4702815141908</v>
+        <v>670.8755067309003</v>
       </c>
       <c r="Y33" t="n">
-        <v>481.7099827492369</v>
+        <v>670.8755067309003</v>
       </c>
     </row>
     <row r="34">
@@ -6874,13 +6876,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S34" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T35" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U35" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V35" t="n">
-        <v>262.7299197543128</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W35" t="n">
-        <v>262.7299197543128</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X35" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="36">
@@ -6990,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>655.1273272985679</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
-        <v>480.6742980174409</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>480.6742980174409</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>480.6742980174409</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>417.4543050195419</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N36" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7041,25 +7043,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T36" t="n">
-        <v>862.8876260635219</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U36" t="n">
-        <v>862.8876260635219</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V36" t="n">
-        <v>862.8876260635219</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W36" t="n">
-        <v>862.8876260635219</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X36" t="n">
-        <v>862.8876260635219</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y36" t="n">
-        <v>655.1273272985679</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="37">
@@ -7117,16 +7119,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
         <v>19.28114311021272</v>
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C38" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D38" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E38" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>749.627473042513</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T38" t="n">
-        <v>749.627473042513</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U38" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V38" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W38" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X38" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y38" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>461.2466632505798</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
-        <v>286.7936339694528</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>286.7936339694528</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>286.7936339694528</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>286.7936339694528</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>148.0628085520683</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>34.69367295964763</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7257,19 +7259,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7278,25 +7280,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>689.4702815141908</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="T39" t="n">
-        <v>689.4702815141908</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="U39" t="n">
-        <v>461.2466632505798</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V39" t="n">
-        <v>461.2466632505798</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W39" t="n">
-        <v>461.2466632505798</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X39" t="n">
-        <v>461.2466632505798</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y39" t="n">
-        <v>461.2466632505798</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C41" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7430,31 +7432,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S41" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T41" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U41" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V41" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W41" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X41" t="n">
-        <v>499.3853800778592</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y41" t="n">
-        <v>262.7299197543128</v>
+        <v>761.6974622895962</v>
       </c>
     </row>
     <row r="42">
@@ -7464,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>638.2370107872948</v>
+        <v>756.2968567456824</v>
       </c>
       <c r="C42" t="n">
-        <v>463.7839815061678</v>
+        <v>587.3567013424552</v>
       </c>
       <c r="D42" t="n">
-        <v>463.7839815061678</v>
+        <v>438.4222916812039</v>
       </c>
       <c r="E42" t="n">
-        <v>304.5465265007123</v>
+        <v>279.1848366757484</v>
       </c>
       <c r="F42" t="n">
-        <v>158.0119685275972</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G42" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H42" t="n">
         <v>19.28114311021272</v>
@@ -7491,19 +7493,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>257.8852890990952</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N42" t="n">
-        <v>496.4894350879777</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O42" t="n">
-        <v>735.0935810768601</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P42" t="n">
         <v>894.6625969973069</v>
@@ -7512,28 +7514,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V42" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W42" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X42" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y42" t="n">
-        <v>806.4523478073629</v>
+        <v>756.2968567456824</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C43" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D43" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E43" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F43" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G43" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H43" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I43" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J43" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K43" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L43" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M43" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N43" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O43" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P43" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q43" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R43" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S43" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T43" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U43" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V43" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W43" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X43" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y43" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="44">
@@ -7622,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C44" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D44" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E44" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F44" t="n">
         <v>19.28114311021272</v>
@@ -7667,31 +7669,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S44" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T44" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U44" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V44" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W44" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X44" t="n">
-        <v>477.1596022224361</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y44" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="45">
@@ -7701,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>411.6785506544679</v>
+        <v>142.4461484402802</v>
       </c>
       <c r="C45" t="n">
-        <v>411.6785506544679</v>
+        <v>142.4461484402802</v>
       </c>
       <c r="D45" t="n">
-        <v>411.6785506544679</v>
+        <v>142.4461484402802</v>
       </c>
       <c r="E45" t="n">
-        <v>411.6785506544679</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F45" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G45" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H45" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
@@ -7737,7 +7739,7 @@
         <v>542.809531908403</v>
       </c>
       <c r="N45" t="n">
-        <v>781.4136778972854</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O45" t="n">
         <v>781.4136778972854</v>
@@ -7749,28 +7751,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U45" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V45" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W45" t="n">
-        <v>619.4388494194218</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="X45" t="n">
-        <v>619.4388494194218</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="Y45" t="n">
-        <v>411.6785506544679</v>
+        <v>310.6614854603483</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -7985,16 +7987,16 @@
         <v>289.278943979937</v>
       </c>
       <c r="M2" t="n">
-        <v>230.3462332272727</v>
+        <v>283.8587622372225</v>
       </c>
       <c r="N2" t="n">
-        <v>229.4130635965909</v>
+        <v>280.7634702223003</v>
       </c>
       <c r="O2" t="n">
-        <v>283.6107404316365</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>282.5834023809789</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>191.3539679843088</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
         <v>138.5543797798742</v>
@@ -8067,13 +8069,13 @@
         <v>193.4844405477277</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>184.8542410932831</v>
       </c>
       <c r="O3" t="n">
-        <v>196.1087734543942</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>187.48693642428</v>
       </c>
       <c r="Q3" t="n">
         <v>193.4943030959713</v>
@@ -8216,7 +8218,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8301,19 +8303,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8535,22 +8537,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>173.111405903722</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8772,7 +8774,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M12" t="n">
         <v>383.1483227996774</v>
@@ -8781,7 +8783,7 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -9009,22 +9011,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O15" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9246,22 +9248,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9401,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9489,10 +9491,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O21" t="n">
-        <v>312.5030352242461</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9723,19 +9725,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9960,13 +9962,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O27" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10194,22 +10196,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10434,16 +10436,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>312.04082470182</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10589,7 +10591,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10665,25 +10667,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>312.0431814381598</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10905,13 +10907,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>303.312501347746</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -10920,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11139,22 +11141,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>383.6105333221035</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P42" t="n">
-        <v>295.1552315763977</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11297,7 +11299,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11385,10 +11387,10 @@
         <v>312.04082470182</v>
       </c>
       <c r="N45" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -23261,25 +23263,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>380.1208739992256</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H11" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23303,16 +23305,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>150.9660159552153</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23334,19 +23336,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>137.3435171632106</v>
@@ -23358,7 +23360,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23385,25 +23387,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>159.6345821469149</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>247.1144340662031</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23422,7 +23424,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>35.51648688708399</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23455,16 +23457,16 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
-        <v>201.982606264288</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T13" t="n">
         <v>227.9455894282815</v>
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23504,19 +23506,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>10.13979328157632</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23543,7 +23545,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>223.0958495641314</v>
@@ -23552,13 +23554,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>366.4657846212723</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23574,10 +23576,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -23586,16 +23588,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>32.49938844775559</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23619,28 +23621,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>137.9381801596286</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23671,10 +23673,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23692,10 +23694,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
         <v>177.2933913771695</v>
@@ -23707,7 +23709,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U16" t="n">
-        <v>264.2850375838066</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23735,22 +23737,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>334.2973598602022</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>10.13979328157632</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,7 +23779,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
@@ -23808,31 +23810,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>27.26179070270013</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>120.4592573625854</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23874,10 +23876,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23941,10 +23943,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23981,16 +23983,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
-        <v>199.2828334142263</v>
+        <v>152.0811711237432</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24014,16 +24016,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
         <v>86.73796959247585</v>
@@ -24045,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -24054,22 +24056,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>12.13031520063322</v>
       </c>
       <c r="H21" t="n">
-        <v>77.83986791782461</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24105,10 +24107,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.6450125965693</v>
+        <v>132.8070558482636</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24169,7 +24171,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>177.2933913771695</v>
@@ -24212,22 +24214,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>268.4601236753789</v>
+        <v>277.0585344134748</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24248,7 +24250,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -24263,7 +24265,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24272,7 +24274,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24282,19 +24284,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>26.50255120528311</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
@@ -24306,7 +24308,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24330,22 +24332,22 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>64.75056867910476</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -24388,7 +24390,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K25" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -24406,10 +24408,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>177.2933913771695</v>
+        <v>66.37591561768434</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24424,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>239.4980740029173</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24461,7 +24463,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>189.2921341996816</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -24491,13 +24493,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
         <v>86.73796959247585</v>
@@ -24506,7 +24508,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>157.4457150350269</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24519,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>105.6954056227803</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -24528,22 +24530,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>58.53507313700862</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24567,25 +24569,25 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>135.5284965833702</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24640,7 +24642,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -24664,7 +24666,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>178.6847310553635</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24677,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24686,13 +24688,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24722,25 +24724,25 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>138.6760617849701</v>
+        <v>146.6038018839531</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24756,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -24768,16 +24770,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>63.96840846475651</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -24804,25 +24806,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>47.79451608452884</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24883,7 +24885,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24892,7 +24894,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24917,10 +24919,10 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
-        <v>270.8624047773015</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24959,13 +24961,13 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>156.5945010984978</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
@@ -24993,25 +24995,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>95.23529433211596</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
@@ -25041,16 +25043,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>135.8562784838579</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -25062,7 +25064,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25114,16 +25116,16 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S34" t="n">
-        <v>179.7131144384051</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
         <v>227.9455894282815</v>
@@ -25151,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>180.4391552345834</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25196,7 +25198,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -25205,19 +25207,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25233,7 +25235,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25242,19 +25244,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>28.01217461260804</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25281,25 +25283,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25357,7 +25359,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25369,7 +25371,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25391,22 +25393,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25433,19 +25435,19 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>156.5945010984978</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>230.1618975371121</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25454,7 +25456,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25470,7 +25472,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25482,16 +25484,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>74.88481962673238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25518,22 +25520,22 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>16.1006142106236</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25628,10 +25630,10 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -25649,7 +25651,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25670,13 +25672,13 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
         <v>223.0958495641314</v>
@@ -25691,10 +25693,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>151.9490329357426</v>
+        <v>185.9018423672239</v>
       </c>
     </row>
     <row r="42">
@@ -25704,13 +25706,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>5.457745139120817</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -25719,10 +25721,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
@@ -25752,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
@@ -25773,7 +25775,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>149.811770303707</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25789,7 +25791,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284436</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25840,7 +25842,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25862,19 +25864,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>169.6449844288197</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>415.302737515135</v>
@@ -25907,13 +25909,13 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>156.5945010984978</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
@@ -25925,13 +25927,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="45">
@@ -25941,7 +25943,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
@@ -25950,22 +25952,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>35.71172517863411</v>
       </c>
       <c r="F45" t="n">
-        <v>96.31796450195137</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25989,13 +25991,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>225.9413820809748</v>
@@ -26041,7 +26043,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I46" t="n">
-        <v>22.26350734189029</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J46" t="n">
         <v>93.35918011667277</v>
@@ -26071,7 +26073,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S46" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T46" t="n">
         <v>227.9455894282815</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>348937.4123157982</v>
+        <v>348937.4123157983</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>348937.4123157983</v>
+        <v>348937.4123157982</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>348937.4123157983</v>
+        <v>348937.4123157982</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>348937.4123157982</v>
+        <v>348937.4123157983</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>348937.4123157982</v>
+        <v>348937.4123157983</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>348937.4123157983</v>
+        <v>348937.4123157982</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>348937.4123157982</v>
+        <v>348937.4123157983</v>
       </c>
     </row>
     <row r="16">
@@ -26314,43 +26316,43 @@
         <v>574729.2389049983</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049982</v>
+        <v>574729.2389049983</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049984</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="E2" t="n">
-        <v>232624.9415438654</v>
+        <v>232624.9415438653</v>
       </c>
       <c r="F2" t="n">
         <v>232624.9415438654</v>
       </c>
       <c r="G2" t="n">
-        <v>232624.9415438654</v>
+        <v>232624.9415438655</v>
       </c>
       <c r="H2" t="n">
-        <v>232624.9415438654</v>
+        <v>232624.9415438655</v>
       </c>
       <c r="I2" t="n">
         <v>232624.9415438654</v>
       </c>
       <c r="J2" t="n">
-        <v>232624.9415438654</v>
+        <v>232624.9415438653</v>
       </c>
       <c r="K2" t="n">
-        <v>232624.9415438654</v>
+        <v>232624.9415438653</v>
       </c>
       <c r="L2" t="n">
         <v>232624.9415438654</v>
       </c>
       <c r="M2" t="n">
-        <v>232624.9415438654</v>
+        <v>232624.9415438653</v>
       </c>
       <c r="N2" t="n">
         <v>232624.9415438654</v>
       </c>
       <c r="O2" t="n">
-        <v>232624.9415438654</v>
+        <v>232624.9415438653</v>
       </c>
       <c r="P2" t="n">
         <v>232624.9415438654</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17933.27925940137</v>
+        <v>17933.27925940139</v>
       </c>
       <c r="C3" t="n">
         <v>60576.32218666811</v>
@@ -26418,7 +26420,7 @@
         <v>329658.5476262335</v>
       </c>
       <c r="C4" t="n">
-        <v>279125.0601321634</v>
+        <v>279125.0601321633</v>
       </c>
       <c r="D4" t="n">
         <v>279125.0601321634</v>
@@ -26522,22 +26524,22 @@
         <v>190256.2502555584</v>
       </c>
       <c r="C6" t="n">
-        <v>186746.587822405</v>
+        <v>186746.5878224052</v>
       </c>
       <c r="D6" t="n">
-        <v>247322.9100090733</v>
+        <v>247322.9100090734</v>
       </c>
       <c r="E6" t="n">
-        <v>217791.7402823998</v>
+        <v>217791.7402823997</v>
       </c>
       <c r="F6" t="n">
-        <v>217791.7402823998</v>
+        <v>217791.7402823997</v>
       </c>
       <c r="G6" t="n">
         <v>217791.7402823998</v>
       </c>
       <c r="H6" t="n">
-        <v>217791.7402823997</v>
+        <v>217791.7402823998</v>
       </c>
       <c r="I6" t="n">
         <v>217791.7402823997</v>
@@ -26546,19 +26548,19 @@
         <v>203790.5081421204</v>
       </c>
       <c r="K6" t="n">
-        <v>169534.7873487672</v>
+        <v>169534.787348767</v>
       </c>
       <c r="L6" t="n">
         <v>217791.7402823997</v>
       </c>
       <c r="M6" t="n">
+        <v>217791.7402823996</v>
+      </c>
+      <c r="N6" t="n">
+        <v>217791.7402823998</v>
+      </c>
+      <c r="O6" t="n">
         <v>217791.7402823997</v>
-      </c>
-      <c r="N6" t="n">
-        <v>217791.7402823997</v>
-      </c>
-      <c r="O6" t="n">
-        <v>217791.7402823998</v>
       </c>
       <c r="P6" t="n">
         <v>217791.7402823997</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>379.7187779375207</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27397,10 +27399,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>156.9633605604562</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27421,25 +27423,25 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>155.5075405762956</v>
       </c>
       <c r="T2" t="n">
         <v>169.5833205541816</v>
       </c>
       <c r="U2" t="n">
-        <v>197.8331238978867</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>274.2397294601852</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>324.2859164222958</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27458,7 +27460,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>119.195969978366</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27470,16 +27472,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>83.83098815326088</v>
       </c>
       <c r="H3" t="n">
-        <v>65.10160868453272</v>
+        <v>58.72291522654671</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,10 +27505,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>46.64530514269338</v>
       </c>
       <c r="S3" t="n">
-        <v>118.1706420938881</v>
+        <v>125.2959268781319</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -27521,7 +27523,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>152.2604561935277</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27543,7 +27545,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>120.2720530811007</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27558,10 +27560,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>39.84665110672302</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,7 +27578,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>32.64951424174463</v>
@@ -27594,10 +27596,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>250.9666663193488</v>
       </c>
       <c r="W4" t="n">
-        <v>233.0104693266412</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27625,10 +27627,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>198.612209353899</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27637,7 +27639,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27664,7 +27666,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27673,13 +27675,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W5" t="n">
-        <v>119.2124069404209</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27780,7 +27782,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>109.3276159129805</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27798,7 +27800,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27831,7 +27833,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>237.3007884161221</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27859,22 +27861,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>179.6356836433646</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>366.3997666085763</v>
       </c>
       <c r="G8" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27898,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -27932,7 +27934,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -27941,7 +27943,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>92.41146242740703</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -27950,10 +27952,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27980,7 +27982,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
@@ -27992,13 +27994,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>97.18798684953126</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28032,10 +28034,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>49.05569651810563</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28050,10 +28052,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>68.60374760888197</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -34705,16 +34707,16 @@
         <v>53.51252900994975</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>51.35040662570938</v>
       </c>
       <c r="O2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>51.35040662570938</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34787,13 +34789,13 @@
         <v>51.35040662570935</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>53.51252900994975</v>
@@ -35021,19 +35023,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35255,22 +35257,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35416,10 +35418,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O11" t="n">
         <v>150.7019698410586</v>
@@ -35492,7 +35494,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M12" t="n">
         <v>241.0142888776591</v>
@@ -35501,7 +35503,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
@@ -35653,7 +35655,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
         <v>207.9338608153932</v>
@@ -35729,22 +35731,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O15" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35966,22 +35968,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36209,10 +36211,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O21" t="n">
-        <v>169.9067907798016</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
@@ -36443,19 +36445,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36680,13 +36682,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O27" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>169.9067907798016</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
@@ -36914,22 +36916,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37154,16 +37156,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>169.9067907798017</v>
+        <v>113.3808631277495</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37385,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>169.9091475161415</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37552,7 +37554,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N38" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O38" t="n">
         <v>150.7019698410586</v>
@@ -37625,13 +37627,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>161.1784674257276</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37640,7 +37642,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37786,7 +37788,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N41" t="n">
         <v>207.9338608153932</v>
@@ -37859,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P42" t="n">
-        <v>161.1808241620674</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
         <v>70.09551364982758</v>
@@ -38105,10 +38107,10 @@
         <v>169.9067907798017</v>
       </c>
       <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>184.4883612256069</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1766876.658361827</v>
+        <v>1698025.36192039</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14661612.74404854</v>
+        <v>14661612.74404855</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5515824.279428588</v>
+        <v>5515824.279428586</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.015063725959893</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>9.891109467671336</v>
       </c>
       <c r="G2" t="n">
         <v>15.30273751513505</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -706,16 +706,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="S2" t="n">
         <v>53.51252900994975</v>
       </c>
       <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -743,19 +743,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>46.38724422570589</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>53.51252900994975</v>
       </c>
       <c r="S3" t="n">
-        <v>46.38724422570589</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -837,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="J4" t="n">
-        <v>53.51252900994975</v>
+        <v>23.44046883036203</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>1.170977004479181</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>208.2638363878124</v>
+        <v>40.47627913313511</v>
       </c>
       <c r="G5" t="n">
         <v>241.0142888776591</v>
@@ -943,16 +943,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V5" t="n">
         <v>241.0142888776591</v>
@@ -974,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>45.28887413297245</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>2.196000269793166</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -1098,13 +1098,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1141,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>40.47627913313517</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>96.13285199009043</v>
       </c>
       <c r="H8" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1183,7 +1183,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -1223,16 +1223,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>52.65774996597684</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>106.0739847596376</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1268,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1314,10 +1314,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>44.30348359856715</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1335,13 +1335,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>241.0142888776591</v>
@@ -1387,58 +1387,58 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S11" t="n">
+        <v>62.4162677022923</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I11" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1448,19 +1448,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1472,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1496,25 +1496,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>12.04858895692291</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>97.76646051984092</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1606,20 +1606,20 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>84.41978777916125</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
@@ -1651,10 +1651,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
         <v>209.0200695862453</v>
@@ -1666,16 +1666,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W14" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X14" t="n">
-        <v>3.26531605719669</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1694,7 +1694,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1703,13 +1703,13 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>79.73605578874087</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1733,28 +1733,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>29.05241763862477</v>
       </c>
     </row>
     <row r="16">
@@ -1785,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1809,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1846,19 +1846,19 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>81.0053776549329</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1867,7 +1867,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1888,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
@@ -1897,10 +1897,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>82.96396779500064</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1922,16 +1922,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>37.18582309281558</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1973,19 +1973,19 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>111.1751113141405</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -2055,10 +2055,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2095,16 +2095,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>58.39471844666272</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2137,16 +2137,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2159,13 +2159,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>125.2132019625774</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2183,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>16.17105719911791</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2228,7 +2228,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2283,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2377,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>241.0142888776591</v>
+        <v>212.285385643442</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2444,16 +2444,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>135.4141600157168</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2462,10 +2462,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2502,7 +2502,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>110.9174757594851</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2554,76 +2554,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>62.4162677022923</v>
+      </c>
+      <c r="Y26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="V26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2633,31 +2633,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>60.83777802708705</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>9.779609449122125</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2684,10 +2684,10 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2754,10 +2754,10 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2800,10 +2800,10 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2882,13 +2882,13 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>48.26703577173995</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2921,22 +2921,22 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>96.06641246444056</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C32" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" t="n">
+      <c r="F32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3079,16 +3079,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>52.42556848774752</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3107,16 +3107,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3164,16 +3164,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>90.0851035971169</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>35.40726547353844</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3234,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
-      </c>
-      <c r="X34" t="n">
-        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,19 +3265,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3347,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>29.88929839105575</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3392,13 +3392,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
@@ -3407,13 +3407,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>4.580549094716531</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3483,13 +3483,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
-      </c>
-      <c r="X37" t="n">
-        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3505,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3547,31 +3547,31 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>21.18375537072436</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3584,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3629,19 +3629,19 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>155.5825568932142</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>110.1497834296626</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>241.0142888776591</v>
@@ -3650,7 +3650,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3717,13 +3717,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3739,76 +3739,76 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>230.2038249569697</v>
+      </c>
+      <c r="F41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C41" t="n">
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D41" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>200.3360962888297</v>
       </c>
     </row>
     <row r="42">
@@ -3821,28 +3821,28 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>167.2507538491949</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>110.8320796684431</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3866,13 +3866,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -3881,13 +3881,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3903,10 +3903,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3994,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,16 +4027,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>52.42556848774752</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4055,19 +4055,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>121.9333552767668</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
@@ -4118,13 +4118,13 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>170.808240367094</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
-      </c>
-      <c r="X46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y46" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>92.8068625444412</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="C2" t="n">
-        <v>92.8068625444412</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="D2" t="n">
-        <v>92.8068625444412</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="E2" t="n">
-        <v>92.8068625444412</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="F2" t="n">
-        <v>85.86136179523773</v>
+        <v>31.80830218922787</v>
       </c>
       <c r="G2" t="n">
-        <v>70.40405117388919</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="H2" t="n">
-        <v>70.40405117388919</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="I2" t="n">
         <v>16.35099156787933</v>
@@ -4339,13 +4339,13 @@
         <v>110.2358097604965</v>
       </c>
       <c r="M2" t="n">
-        <v>163.2132134803467</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="N2" t="n">
-        <v>214.050116039799</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="O2" t="n">
-        <v>214.050116039799</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="P2" t="n">
         <v>214.050116039799</v>
@@ -4354,28 +4354,28 @@
         <v>203.9585006715719</v>
       </c>
       <c r="R2" t="n">
-        <v>203.9585006715719</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="S2" t="n">
-        <v>149.9054410655621</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="T2" t="n">
         <v>95.85238145955221</v>
       </c>
       <c r="U2" t="n">
-        <v>95.85238145955221</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="V2" t="n">
-        <v>95.85238145955221</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="W2" t="n">
-        <v>95.85238145955221</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="X2" t="n">
-        <v>95.85238145955221</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="Y2" t="n">
-        <v>95.85238145955221</v>
+        <v>41.79932185354235</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>113.1412541856014</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="C3" t="n">
-        <v>113.1412541856014</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="D3" t="n">
-        <v>113.1412541856014</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="E3" t="n">
-        <v>113.1412541856014</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="F3" t="n">
-        <v>113.1412541856014</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="G3" t="n">
-        <v>59.08819457959154</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="H3" t="n">
         <v>5.035134973581694</v>
@@ -4412,22 +4412,22 @@
         <v>4.28100232079598</v>
       </c>
       <c r="K3" t="n">
-        <v>4.28100232079598</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="L3" t="n">
-        <v>4.28100232079598</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="M3" t="n">
-        <v>55.11790488024824</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="N3" t="n">
-        <v>108.0953086000985</v>
+        <v>214.050116039799</v>
       </c>
       <c r="O3" t="n">
-        <v>108.0953086000985</v>
+        <v>214.050116039799</v>
       </c>
       <c r="P3" t="n">
-        <v>161.0727123199487</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Q3" t="n">
         <v>214.050116039799</v>
@@ -4436,25 +4436,25 @@
         <v>159.9970564337892</v>
       </c>
       <c r="S3" t="n">
-        <v>113.1412541856014</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="T3" t="n">
-        <v>113.1412541856014</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="U3" t="n">
-        <v>113.1412541856014</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="V3" t="n">
-        <v>113.1412541856014</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="W3" t="n">
-        <v>113.1412541856014</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="X3" t="n">
-        <v>113.1412541856014</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="Y3" t="n">
-        <v>113.1412541856014</v>
+        <v>105.9439968277793</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>80.82849811456629</v>
+        <v>82.01130316959576</v>
       </c>
       <c r="C4" t="n">
-        <v>80.82849811456629</v>
+        <v>82.01130316959576</v>
       </c>
       <c r="D4" t="n">
-        <v>80.82849811456629</v>
+        <v>82.01130316959576</v>
       </c>
       <c r="E4" t="n">
-        <v>80.82849811456629</v>
+        <v>82.01130316959576</v>
       </c>
       <c r="F4" t="n">
-        <v>80.82849811456629</v>
+        <v>82.01130316959576</v>
       </c>
       <c r="G4" t="n">
-        <v>80.82849811456629</v>
+        <v>82.01130316959576</v>
       </c>
       <c r="H4" t="n">
-        <v>80.82849811456629</v>
+        <v>82.01130316959576</v>
       </c>
       <c r="I4" t="n">
-        <v>80.82849811456629</v>
+        <v>27.95824356358591</v>
       </c>
       <c r="J4" t="n">
-        <v>26.77543850855644</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K4" t="n">
         <v>4.28100232079598</v>
@@ -4509,31 +4509,31 @@
         <v>136.0643627756056</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.01130316959576</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="R4" t="n">
-        <v>82.01130316959576</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="S4" t="n">
-        <v>82.01130316959576</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="T4" t="n">
-        <v>82.01130316959576</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="U4" t="n">
-        <v>82.01130316959576</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="V4" t="n">
-        <v>80.82849811456629</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="W4" t="n">
-        <v>80.82849811456629</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="X4" t="n">
-        <v>80.82849811456629</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="Y4" t="n">
-        <v>80.82849811456629</v>
+        <v>136.0643627756056</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>485.167420504237</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C5" t="n">
-        <v>485.167420504237</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D5" t="n">
-        <v>485.167420504237</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="E5" t="n">
-        <v>485.167420504237</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="F5" t="n">
         <v>274.7999090013961</v>
@@ -4591,28 +4591,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>728.6161971483371</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>728.6161971483371</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="V5" t="n">
-        <v>485.167420504237</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="W5" t="n">
-        <v>485.167420504237</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="X5" t="n">
-        <v>485.167420504237</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="Y5" t="n">
-        <v>485.167420504237</v>
+        <v>315.6850394389064</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>817.1412885554689</v>
+        <v>320.2217382765386</v>
       </c>
       <c r="C6" t="n">
-        <v>817.1412885554689</v>
+        <v>320.2217382765386</v>
       </c>
       <c r="D6" t="n">
-        <v>668.2068788942177</v>
+        <v>320.2217382765386</v>
       </c>
       <c r="E6" t="n">
-        <v>508.9694238887622</v>
+        <v>160.9842832710831</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4670,28 +4670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>862.8876260635219</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V6" t="n">
-        <v>862.8876260635219</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W6" t="n">
-        <v>862.8876260635219</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="X6" t="n">
-        <v>862.8876260635219</v>
+        <v>527.9820370414925</v>
       </c>
       <c r="Y6" t="n">
-        <v>862.8876260635219</v>
+        <v>320.2217382765386</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C7" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D7" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E7" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F7" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G7" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H7" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I7" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J7" t="n">
         <v>41.77557929797318</v>
@@ -4746,31 +4746,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R7" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="T7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="U7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V7" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W7" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X7" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y7" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="C8" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="D8" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="E8" t="n">
-        <v>559.1338160830064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="F8" t="n">
-        <v>518.2486856454962</v>
+        <v>584.5057085574531</v>
       </c>
       <c r="G8" t="n">
-        <v>274.7999090013961</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H8" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
         <v>31.35113235729608</v>
@@ -4831,25 +4831,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U8" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V8" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W8" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X8" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y8" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>486.9119902784999</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="C9" t="n">
-        <v>312.4589609973729</v>
+        <v>561.3805079658983</v>
       </c>
       <c r="D9" t="n">
-        <v>163.5245513361216</v>
+        <v>412.4460983046471</v>
       </c>
       <c r="E9" t="n">
-        <v>163.5245513361216</v>
+        <v>412.4460983046471</v>
       </c>
       <c r="F9" t="n">
-        <v>110.334904905842</v>
+        <v>265.911540331532</v>
       </c>
       <c r="G9" t="n">
-        <v>110.334904905842</v>
+        <v>127.1807149141475</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
         <v>20.03527576299844</v>
@@ -4889,16 +4889,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>178.8501590306595</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M9" t="n">
-        <v>417.4543050195419</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N9" t="n">
-        <v>656.0584510084244</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
         <v>894.6625969973069</v>
@@ -4907,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>862.8876260635219</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V9" t="n">
-        <v>862.8876260635219</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W9" t="n">
-        <v>862.8876260635219</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="X9" t="n">
-        <v>862.8876260635219</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="Y9" t="n">
-        <v>655.1273272985679</v>
+        <v>735.8335372470253</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>64.03213664411894</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="C10" t="n">
-        <v>64.03213664411894</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="D10" t="n">
-        <v>64.03213664411894</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="E10" t="n">
-        <v>64.03213664411894</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="F10" t="n">
-        <v>64.03213664411894</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="G10" t="n">
-        <v>64.03213664411894</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="H10" t="n">
-        <v>64.03213664411894</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="I10" t="n">
-        <v>64.03213664411894</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4983,31 +4983,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>64.03213664411894</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="T10" t="n">
-        <v>64.03213664411894</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="U10" t="n">
-        <v>64.03213664411894</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="V10" t="n">
-        <v>64.03213664411894</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="W10" t="n">
-        <v>64.03213664411894</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="X10" t="n">
-        <v>64.03213664411894</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="Y10" t="n">
-        <v>64.03213664411894</v>
+        <v>136.0777814360265</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C11" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D11" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E11" t="n">
-        <v>962.2293816994886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F11" t="n">
-        <v>718.7806050553886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G11" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
         <v>19.28114311021272</v>
@@ -5065,28 +5065,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S11" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T11" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U11" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V11" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W11" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X11" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y11" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="12">
@@ -5096,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>474.7416984028202</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C12" t="n">
-        <v>474.7416984028202</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D12" t="n">
-        <v>325.807288741569</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E12" t="n">
-        <v>166.5698337361135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
@@ -5126,46 +5126,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>542.809531908403</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N12" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O12" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P12" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>850.7173341878422</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>850.7173341878422</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U12" t="n">
-        <v>850.7173341878422</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V12" t="n">
-        <v>850.7173341878422</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="W12" t="n">
-        <v>850.7173341878422</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X12" t="n">
-        <v>850.7173341878422</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y12" t="n">
-        <v>642.9570354228883</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
         <v>19.28114311021272</v>
@@ -5220,31 +5220,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R13" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S13" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T13" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C14" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D14" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E14" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F14" t="n">
         <v>19.28114311021272</v>
@@ -5299,31 +5299,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S14" t="n">
-        <v>752.9257720901863</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T14" t="n">
-        <v>752.9257720901863</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U14" t="n">
-        <v>752.9257720901863</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V14" t="n">
-        <v>509.4769954460863</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W14" t="n">
-        <v>266.0282188019862</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X14" t="n">
-        <v>262.7299197543128</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y14" t="n">
-        <v>262.7299197543128</v>
+        <v>348.0024326625565</v>
       </c>
     </row>
     <row r="15">
@@ -5333,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>259.0600686093459</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C15" t="n">
-        <v>259.0600686093459</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D15" t="n">
-        <v>259.0600686093459</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E15" t="n">
-        <v>99.82261360389037</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F15" t="n">
-        <v>99.82261360389037</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G15" t="n">
-        <v>99.82261360389037</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
@@ -5366,10 +5366,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N15" t="n">
-        <v>712.019119383956</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O15" t="n">
         <v>712.019119383956</v>
@@ -5381,28 +5381,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T15" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U15" t="n">
-        <v>259.0600686093459</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V15" t="n">
-        <v>259.0600686093459</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W15" t="n">
-        <v>259.0600686093459</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X15" t="n">
-        <v>259.0600686093459</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y15" t="n">
-        <v>259.0600686093459</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
         <v>19.28114311021272</v>
@@ -5457,31 +5457,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R16" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S16" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T16" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>812.6742080953335</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C17" t="n">
-        <v>812.6742080953335</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="D17" t="n">
-        <v>569.2254314512334</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E17" t="n">
-        <v>325.7766548071333</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F17" t="n">
-        <v>325.7766548071333</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G17" t="n">
-        <v>243.9530410142718</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H17" t="n">
-        <v>243.9530410142718</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T17" t="n">
-        <v>812.6742080953335</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="U17" t="n">
-        <v>812.6742080953335</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="V17" t="n">
-        <v>812.6742080953335</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="W17" t="n">
-        <v>812.6742080953335</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="X17" t="n">
-        <v>812.6742080953335</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="Y17" t="n">
-        <v>812.6742080953335</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="18">
@@ -5570,13 +5570,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>380.2300195200815</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>205.7769902389545</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>56.84258057770322</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
         <v>19.28114311021272</v>
@@ -5600,19 +5600,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M18" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N18" t="n">
-        <v>712.019119383956</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5621,25 +5621,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X18" t="n">
-        <v>756.2056553051034</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y18" t="n">
-        <v>548.4453565401495</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5703,7 +5703,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
         <v>19.28114311021272</v>
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>333.7844730889342</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C20" t="n">
-        <v>333.7844730889342</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D20" t="n">
-        <v>333.7844730889342</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>333.7844730889342</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>333.7844730889342</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>90.33569644483418</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
-        <v>90.33569644483418</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5785,19 +5785,19 @@
         <v>577.2332497330343</v>
       </c>
       <c r="U20" t="n">
-        <v>577.2332497330343</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="V20" t="n">
         <v>333.7844730889342</v>
       </c>
       <c r="W20" t="n">
-        <v>333.7844730889342</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="X20" t="n">
-        <v>333.7844730889342</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y20" t="n">
-        <v>333.7844730889342</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="21">
@@ -5807,46 +5807,46 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>304.9965798960495</v>
+        <v>328.2071404297052</v>
       </c>
       <c r="C21" t="n">
-        <v>304.9965798960495</v>
+        <v>328.2071404297052</v>
       </c>
       <c r="D21" t="n">
-        <v>304.9965798960495</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="E21" t="n">
-        <v>145.759124890594</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F21" t="n">
-        <v>145.759124890594</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N21" t="n">
-        <v>781.4136778972854</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P21" t="n">
         <v>964.0571555106362</v>
@@ -5855,28 +5855,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>947.722754299406</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>947.722754299406</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>947.722754299406</v>
       </c>
       <c r="U21" t="n">
-        <v>964.0571555106362</v>
+        <v>947.722754299406</v>
       </c>
       <c r="V21" t="n">
-        <v>964.0571555106362</v>
+        <v>947.722754299406</v>
       </c>
       <c r="W21" t="n">
-        <v>720.6083788665362</v>
+        <v>704.273977655306</v>
       </c>
       <c r="X21" t="n">
-        <v>512.7568786610034</v>
+        <v>496.4224774497732</v>
       </c>
       <c r="Y21" t="n">
-        <v>304.9965798960495</v>
+        <v>496.4224774497732</v>
       </c>
     </row>
     <row r="22">
@@ -5931,31 +5931,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>569.2254314512334</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C23" t="n">
-        <v>569.2254314512334</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D23" t="n">
-        <v>569.2254314512334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>325.7766548071333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>82.32787816303323</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>82.32787816303323</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6013,28 +6013,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>569.2254314512334</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W23" t="n">
-        <v>569.2254314512334</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X23" t="n">
-        <v>569.2254314512334</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y23" t="n">
-        <v>569.2254314512334</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="24">
@@ -6077,40 +6077,40 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N24" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>726.1056462496665</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>497.8820279860555</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V24" t="n">
-        <v>262.7299197543128</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W24" t="n">
-        <v>19.28114311021272</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X24" t="n">
-        <v>19.28114311021272</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y24" t="n">
         <v>19.28114311021272</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>852.019301208126</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>852.019301208126</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D26" t="n">
         <v>19.28114311021272</v>
@@ -6250,28 +6250,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U26" t="n">
-        <v>720.6083788665362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V26" t="n">
-        <v>477.1596022224361</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W26" t="n">
-        <v>477.1596022224361</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X26" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y26" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="27">
@@ -6281,40 +6281,40 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>667.4527462414319</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="C27" t="n">
-        <v>667.4527462414319</v>
+        <v>178.8480788072013</v>
       </c>
       <c r="D27" t="n">
-        <v>667.4527462414319</v>
+        <v>29.91366914595008</v>
       </c>
       <c r="E27" t="n">
-        <v>508.2152912359765</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F27" t="n">
-        <v>361.6807332628614</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G27" t="n">
-        <v>222.9499078454769</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H27" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N27" t="n">
         <v>542.809531908403</v>
@@ -6332,25 +6332,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U27" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V27" t="n">
-        <v>728.9050472788936</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="W27" t="n">
-        <v>728.9050472788936</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="X27" t="n">
-        <v>728.9050472788936</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="Y27" t="n">
-        <v>728.9050472788936</v>
+        <v>353.3011080883284</v>
       </c>
     </row>
     <row r="28">
@@ -6402,34 +6402,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>19.28114311021272</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F29" t="n">
         <v>19.28114311021272</v>
@@ -6490,25 +6490,25 @@
         <v>812.6742080953335</v>
       </c>
       <c r="S29" t="n">
-        <v>749.627473042513</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T29" t="n">
-        <v>749.627473042513</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U29" t="n">
-        <v>506.1786963984129</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V29" t="n">
-        <v>506.1786963984129</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W29" t="n">
-        <v>262.7299197543128</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X29" t="n">
-        <v>262.7299197543128</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y29" t="n">
-        <v>262.7299197543128</v>
+        <v>569.2254314512334</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>353.3011080883284</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C30" t="n">
-        <v>353.3011080883284</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>353.3011080883284</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>353.3011080883284</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>206.7665501152133</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>68.03572469782884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
         <v>19.28114311021272</v>
@@ -6551,10 +6551,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>613.2059550252818</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N30" t="n">
-        <v>851.8101010141643</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O30" t="n">
         <v>894.6625969973069</v>
@@ -6569,25 +6569,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>790.6398109613051</v>
+        <v>867.0203752435245</v>
       </c>
       <c r="T30" t="n">
-        <v>588.4532163200711</v>
+        <v>867.0203752435245</v>
       </c>
       <c r="U30" t="n">
-        <v>588.4532163200711</v>
+        <v>638.7967569799137</v>
       </c>
       <c r="V30" t="n">
-        <v>353.3011080883284</v>
+        <v>638.7967569799137</v>
       </c>
       <c r="W30" t="n">
-        <v>353.3011080883284</v>
+        <v>395.3479803358136</v>
       </c>
       <c r="X30" t="n">
-        <v>353.3011080883284</v>
+        <v>187.4964801302808</v>
       </c>
       <c r="Y30" t="n">
-        <v>353.3011080883284</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="C32" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="D32" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="E32" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C32" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="D32" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="E32" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
         <v>19.28114311021272</v>
@@ -6727,22 +6727,22 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S32" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T32" t="n">
-        <v>749.627473042513</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U32" t="n">
-        <v>749.627473042513</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V32" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W32" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X32" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y32" t="n">
         <v>506.1786963984129</v>
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>502.6601697108322</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>328.2071404297052</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>179.2727307684539</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6788,13 +6788,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>486.8488635328713</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N33" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O33" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
         <v>964.0571555106362</v>
@@ -6812,19 +6812,19 @@
         <v>761.8705608694022</v>
       </c>
       <c r="U33" t="n">
-        <v>670.8755067309003</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V33" t="n">
-        <v>670.8755067309003</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W33" t="n">
-        <v>670.8755067309003</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X33" t="n">
-        <v>670.8755067309003</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y33" t="n">
-        <v>670.8755067309003</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="34">
@@ -6882,22 +6882,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
         <v>19.28114311021272</v>
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>262.7299197543128</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="C35" t="n">
-        <v>262.7299197543128</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="D35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
         <v>19.28114311021272</v>
@@ -6964,25 +6964,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T35" t="n">
-        <v>953.9655401424092</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U35" t="n">
-        <v>953.9655401424092</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="V35" t="n">
-        <v>953.9655401424092</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="W35" t="n">
-        <v>710.516763498309</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="X35" t="n">
-        <v>467.067986854209</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="Y35" t="n">
-        <v>467.067986854209</v>
+        <v>274.0360370837871</v>
       </c>
     </row>
     <row r="36">
@@ -6992,7 +6992,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>19.28114311021272</v>
+        <v>49.47235360622864</v>
       </c>
       <c r="C36" t="n">
         <v>19.28114311021272</v>
@@ -7025,7 +7025,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>374.6018090363993</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N36" t="n">
         <v>542.809531908403</v>
@@ -7040,28 +7040,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>259.0600686093459</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V36" t="n">
-        <v>23.90796037760316</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W36" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X36" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y36" t="n">
-        <v>19.28114311021272</v>
+        <v>49.47235360622864</v>
       </c>
     </row>
     <row r="37">
@@ -7131,10 +7131,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
         <v>19.28114311021272</v>
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C38" t="n">
         <v>19.28114311021272</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S38" t="n">
-        <v>752.9257720901863</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T38" t="n">
-        <v>527.5764290961142</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U38" t="n">
-        <v>506.1786963984129</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="V38" t="n">
-        <v>506.1786963984129</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="W38" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X38" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="39">
@@ -7229,7 +7229,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.28114311021272</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C39" t="n">
         <v>19.28114311021272</v>
@@ -7262,7 +7262,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>374.6018090363993</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N39" t="n">
         <v>473.4149733950735</v>
@@ -7277,28 +7277,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>705.7335281915883</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>705.7335281915883</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>705.7335281915883</v>
+        <v>852.7947480059265</v>
       </c>
       <c r="V39" t="n">
-        <v>470.5814199598456</v>
+        <v>852.7947480059265</v>
       </c>
       <c r="W39" t="n">
-        <v>227.1326433157456</v>
+        <v>609.3459713618265</v>
       </c>
       <c r="X39" t="n">
-        <v>19.28114311021272</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="Y39" t="n">
-        <v>19.28114311021272</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="40">
@@ -7365,10 +7365,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
         <v>19.28114311021272</v>
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>518.2486856454962</v>
+        <v>495.259035872464</v>
       </c>
       <c r="C41" t="n">
-        <v>274.7999090013961</v>
+        <v>495.259035872464</v>
       </c>
       <c r="D41" t="n">
-        <v>31.35113235729608</v>
+        <v>495.259035872464</v>
       </c>
       <c r="E41" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F41" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G41" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I41" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7441,22 +7441,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T41" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U41" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V41" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W41" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="X41" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="Y41" t="n">
-        <v>761.6974622895962</v>
+        <v>495.259035872464</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>756.2968567456824</v>
+        <v>417.2522547781879</v>
       </c>
       <c r="C42" t="n">
-        <v>587.3567013424552</v>
+        <v>417.2522547781879</v>
       </c>
       <c r="D42" t="n">
-        <v>438.4222916812039</v>
+        <v>417.2522547781879</v>
       </c>
       <c r="E42" t="n">
-        <v>279.1848366757484</v>
+        <v>417.2522547781879</v>
       </c>
       <c r="F42" t="n">
-        <v>132.6502787026334</v>
+        <v>270.7176968050729</v>
       </c>
       <c r="G42" t="n">
-        <v>132.6502787026334</v>
+        <v>131.9868713876884</v>
       </c>
       <c r="H42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
@@ -7499,10 +7499,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>374.6018090363993</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N42" t="n">
-        <v>613.2059550252818</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O42" t="n">
         <v>712.019119383956</v>
@@ -7514,28 +7514,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S42" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T42" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U42" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V42" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="W42" t="n">
-        <v>964.0571555106362</v>
+        <v>417.2522547781879</v>
       </c>
       <c r="X42" t="n">
-        <v>964.0571555106362</v>
+        <v>417.2522547781879</v>
       </c>
       <c r="Y42" t="n">
-        <v>756.2968567456824</v>
+        <v>417.2522547781879</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D43" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L43" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M43" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N43" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>262.7299197543128</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="C44" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="D44" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="E44" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="F44" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="G44" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="H44" t="n">
         <v>19.28114311021272</v>
@@ -7675,25 +7675,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S44" t="n">
-        <v>749.627473042513</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T44" t="n">
-        <v>749.627473042513</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U44" t="n">
-        <v>749.627473042513</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V44" t="n">
-        <v>749.627473042513</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="W44" t="n">
-        <v>749.627473042513</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="X44" t="n">
-        <v>749.627473042513</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="Y44" t="n">
-        <v>506.1786963984129</v>
+        <v>122.6530896684844</v>
       </c>
     </row>
     <row r="45">
@@ -7703,16 +7703,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>142.4461484402802</v>
+        <v>314.750110744579</v>
       </c>
       <c r="C45" t="n">
-        <v>142.4461484402802</v>
+        <v>314.750110744579</v>
       </c>
       <c r="D45" t="n">
-        <v>142.4461484402802</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="E45" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F45" t="n">
         <v>19.28114311021272</v>
@@ -7736,13 +7736,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N45" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O45" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P45" t="n">
         <v>964.0571555106362</v>
@@ -7751,28 +7751,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S45" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T45" t="n">
-        <v>761.8705608694022</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U45" t="n">
-        <v>761.8705608694022</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V45" t="n">
-        <v>761.8705608694022</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W45" t="n">
-        <v>518.4217842253022</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X45" t="n">
-        <v>518.4217842253022</v>
+        <v>314.750110744579</v>
       </c>
       <c r="Y45" t="n">
-        <v>310.6614854603483</v>
+        <v>314.750110744579</v>
       </c>
     </row>
     <row r="46">
@@ -7833,22 +7833,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y46" t="n">
         <v>19.28114311021272</v>
@@ -7987,16 +7987,16 @@
         <v>289.278943979937</v>
       </c>
       <c r="M2" t="n">
-        <v>283.8587622372225</v>
+        <v>281.6966398529821</v>
       </c>
       <c r="N2" t="n">
-        <v>280.7634702223003</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
         <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>284.7455247652193</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,10 +8060,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>191.3539679843088</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>192.0669087898239</v>
       </c>
       <c r="M3" t="n">
         <v>193.4844405477277</v>
@@ -8075,10 +8075,10 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>187.48693642428</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>193.4943030959713</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,7 +8218,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8537,10 +8537,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>173.111405903722</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
@@ -8549,7 +8549,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8695,7 +8695,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
@@ -8774,22 +8774,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>383.1483227996774</v>
+        <v>185.4193833999402</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9014,13 +9014,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N15" t="n">
-        <v>231.1529892133072</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9248,22 +9248,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N18" t="n">
-        <v>231.1529892133072</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9403,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9482,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9491,13 +9491,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -9725,19 +9725,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O24" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9956,16 +9956,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>301.248502863135</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
@@ -10199,13 +10199,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>185.4193833999402</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -10436,16 +10436,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>255.5148970497678</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10591,7 +10591,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10673,10 +10673,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N36" t="n">
-        <v>301.248502863135</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
@@ -10910,10 +10910,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N39" t="n">
-        <v>231.1529892133073</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -11147,13 +11147,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N42" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>242.4075215744184</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11299,7 +11299,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11384,16 +11384,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -23266,7 +23266,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>380.1208739992256</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>165.8617568640524</v>
@@ -23275,10 +23275,10 @@
         <v>174.288448637476</v>
       </c>
       <c r="H11" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23305,10 +23305,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>146.6038018839531</v>
       </c>
       <c r="T11" t="n">
         <v>223.0958495641314</v>
@@ -23326,7 +23326,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="12">
@@ -23336,19 +23336,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>137.3435171632106</v>
@@ -23360,7 +23360,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23384,25 +23384,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>159.6345821469149</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>135.0341266295844</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -23424,7 +23424,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>35.51648688708399</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23442,7 +23442,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23460,7 +23460,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>177.2933913771695</v>
@@ -23472,7 +23472,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U13" t="n">
-        <v>286.3190293564909</v>
+        <v>239.2941050228172</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>141.7195527858215</v>
+        <v>298.3140538843193</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23506,7 +23506,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G14" t="n">
         <v>415.302737515135</v>
@@ -23539,10 +23539,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -23554,16 +23554,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>366.4657846212723</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="15">
@@ -23582,7 +23582,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -23591,13 +23591,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>32.49938844775559</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23621,28 +23621,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>176.6302781386796</v>
       </c>
     </row>
     <row r="16">
@@ -23673,13 +23673,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23697,7 +23697,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>177.2933913771695</v>
@@ -23709,7 +23709,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U16" t="n">
-        <v>286.3190293564909</v>
+        <v>239.2941050228172</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23734,19 +23734,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D17" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>334.2973598602022</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
         <v>339.4748021157671</v>
@@ -23755,7 +23755,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23776,7 +23776,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -23785,10 +23785,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>140.1318817691307</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23810,16 +23810,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>120.4592573625854</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -23861,19 +23861,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>114.7662707668343</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -23943,10 +23943,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U19" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23983,16 +23983,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
-        <v>152.0811711237432</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24025,16 +24025,16 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>299.3870928771938</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24047,13 +24047,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -24062,7 +24062,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>12.13031520063322</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
@@ -24071,7 +24071,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24095,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>83.98677695352522</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
@@ -24116,7 +24116,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>132.8070558482636</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24171,7 +24171,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
         <v>177.2933913771695</v>
@@ -24180,7 +24180,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U22" t="n">
         <v>286.3190293564909</v>
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>277.0585344134748</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24253,7 +24253,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
@@ -24265,7 +24265,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24332,16 +24332,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>64.75056867910476</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24350,10 +24350,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24390,7 +24390,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37591561768434</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
@@ -24442,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D26" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24490,7 +24490,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
@@ -24499,19 +24499,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>157.4457150350269</v>
+        <v>307.3148329761767</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="27">
@@ -24521,31 +24521,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>105.6954056227803</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>147.8654710062788</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24572,10 +24572,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>135.5284965833702</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24642,10 +24642,10 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
         <v>177.2933913771695</v>
@@ -24657,7 +24657,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24688,10 +24688,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>319.5141023699695</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>146.6038018839531</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="30">
@@ -24758,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -24770,13 +24770,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>63.96840846475651</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
@@ -24809,22 +24809,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>75.61675863939726</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24885,10 +24885,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T31" t="n">
         <v>227.9455894282815</v>
@@ -24916,19 +24916,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
@@ -24967,16 +24967,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>156.5945010984978</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>257.4082506688596</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -24985,7 +24985,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24995,16 +24995,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -25019,7 +25019,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25052,16 +25052,16 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>135.8562784838579</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>170.365719729939</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25122,7 +25122,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25140,7 +25140,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25153,19 +25153,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>180.4391552345834</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>343.4899854645034</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>415.302737515135</v>
@@ -25204,22 +25204,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25235,7 +25235,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>142.81920059726</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25280,13 +25280,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25295,13 +25295,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>247.1144340662031</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25371,13 +25371,13 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25393,7 +25393,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25435,31 +25435,31 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>230.1618975371121</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>278.8969609161378</v>
       </c>
       <c r="X38" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="39">
@@ -25472,7 +25472,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25517,19 +25517,19 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>16.1006142106236</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>115.7915986513122</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>10.68069428326055</v>
@@ -25538,7 +25538,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25605,13 +25605,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25627,19 +25627,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>151.7265451152921</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G41" t="n">
         <v>415.302737515135</v>
@@ -25651,7 +25651,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25681,7 +25681,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
@@ -25696,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>185.9018423672239</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="42">
@@ -25709,28 +25709,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>5.457745139120817</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1.403364568053362</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25754,13 +25754,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
@@ -25769,13 +25769,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25791,10 +25791,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>15.42850543284436</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25882,7 +25882,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>237.1365750230782</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25915,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>156.5945010984978</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25933,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25943,19 +25943,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>35.71172517863411</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>137.3435171632106</v>
@@ -25991,10 +25991,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26006,13 +26006,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>34.96474483638349</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26073,7 +26073,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S46" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T46" t="n">
         <v>227.9455894282815</v>
@@ -26091,7 +26091,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>348937.4123157983</v>
+        <v>348937.4123157982</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>348937.4123157983</v>
+        <v>348937.4123157982</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>348937.4123157982</v>
+        <v>348937.4123157981</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>348937.4123157983</v>
+        <v>348937.4123157981</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>348937.4123157983</v>
+        <v>348937.4123157982</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>348937.4123157983</v>
+        <v>348937.4123157982</v>
       </c>
     </row>
   </sheetData>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>574729.2389049984</v>
+      </c>
+      <c r="C2" t="n">
+        <v>574729.2389049984</v>
+      </c>
+      <c r="D2" t="n">
         <v>574729.2389049983</v>
-      </c>
-      <c r="C2" t="n">
-        <v>574729.2389049983</v>
-      </c>
-      <c r="D2" t="n">
-        <v>574729.2389049985</v>
       </c>
       <c r="E2" t="n">
         <v>232624.9415438653</v>
@@ -26328,19 +26328,19 @@
         <v>232624.9415438654</v>
       </c>
       <c r="G2" t="n">
-        <v>232624.9415438655</v>
+        <v>232624.9415438654</v>
       </c>
       <c r="H2" t="n">
-        <v>232624.9415438655</v>
+        <v>232624.9415438654</v>
       </c>
       <c r="I2" t="n">
         <v>232624.9415438654</v>
       </c>
       <c r="J2" t="n">
-        <v>232624.9415438653</v>
+        <v>232624.9415438654</v>
       </c>
       <c r="K2" t="n">
-        <v>232624.9415438653</v>
+        <v>232624.9415438654</v>
       </c>
       <c r="L2" t="n">
         <v>232624.9415438654</v>
@@ -26352,7 +26352,7 @@
         <v>232624.9415438654</v>
       </c>
       <c r="O2" t="n">
-        <v>232624.9415438653</v>
+        <v>232624.9415438655</v>
       </c>
       <c r="P2" t="n">
         <v>232624.9415438654</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>190256.2502555584</v>
+        <v>190256.2502555586</v>
       </c>
       <c r="C6" t="n">
-        <v>186746.5878224052</v>
+        <v>186746.5878224053</v>
       </c>
       <c r="D6" t="n">
-        <v>247322.9100090734</v>
+        <v>247322.9100090732</v>
       </c>
       <c r="E6" t="n">
-        <v>217791.7402823997</v>
+        <v>205573.7296623592</v>
       </c>
       <c r="F6" t="n">
-        <v>217791.7402823997</v>
+        <v>205573.7296623593</v>
       </c>
       <c r="G6" t="n">
-        <v>217791.7402823998</v>
+        <v>205573.7296623593</v>
       </c>
       <c r="H6" t="n">
-        <v>217791.7402823998</v>
+        <v>205573.7296623593</v>
       </c>
       <c r="I6" t="n">
-        <v>217791.7402823997</v>
+        <v>205573.7296623593</v>
       </c>
       <c r="J6" t="n">
-        <v>203790.5081421204</v>
+        <v>191572.49752208</v>
       </c>
       <c r="K6" t="n">
-        <v>169534.787348767</v>
+        <v>157316.7767287267</v>
       </c>
       <c r="L6" t="n">
-        <v>217791.7402823997</v>
+        <v>205573.7296623593</v>
       </c>
       <c r="M6" t="n">
-        <v>217791.7402823996</v>
+        <v>205573.7296623592</v>
       </c>
       <c r="N6" t="n">
-        <v>217791.7402823998</v>
+        <v>205573.7296623593</v>
       </c>
       <c r="O6" t="n">
-        <v>217791.7402823997</v>
+        <v>205573.7296623593</v>
       </c>
       <c r="P6" t="n">
-        <v>217791.7402823997</v>
+        <v>205573.7296623593</v>
       </c>
     </row>
   </sheetData>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>379.7187779375207</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27390,7 +27390,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>396.9849362740401</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>156.9633605604562</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>96.35658893119992</v>
       </c>
       <c r="S2" t="n">
         <v>155.5075405762956</v>
       </c>
       <c r="T2" t="n">
-        <v>169.5833205541816</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>197.8331238978867</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27463,19 +27463,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>101.0578213389329</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>104.1325514454512</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>83.83098815326088</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>58.72291522654671</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -27508,7 +27508,7 @@
         <v>46.64530514269338</v>
       </c>
       <c r="S3" t="n">
-        <v>125.2959268781319</v>
+        <v>118.1706420938881</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>126.3194511719875</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27557,13 +27557,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>101.9379459173085</v>
       </c>
       <c r="J4" t="n">
-        <v>39.84665110672302</v>
+        <v>69.91871128631075</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>32.64951424174463</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
@@ -27596,7 +27596,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>250.9666663193488</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27627,7 +27627,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>198.612209353899</v>
+        <v>366.3997666085763</v>
       </c>
       <c r="G5" t="n">
         <v>174.288448637476</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
         <v>86.73796959247585</v>
@@ -27694,28 +27694,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>121.2443095168949</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>142.8732121235907</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -27751,7 +27751,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27760,10 +27760,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27797,7 +27797,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>201.982606264288</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -27833,7 +27833,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
-        <v>237.3007884161221</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27861,19 +27861,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>366.3997666085763</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>319.1698855250446</v>
       </c>
       <c r="H8" t="n">
         <v>98.46051323810809</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -27931,7 +27931,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -27943,16 +27943,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>92.41146242740703</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>6.161459476858866</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,7 +27979,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -27988,7 +27988,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -28000,7 +28000,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28034,10 +28034,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>49.05569651810563</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28055,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>209.1797431292663</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -34707,16 +34707,16 @@
         <v>53.51252900994975</v>
       </c>
       <c r="M2" t="n">
+        <v>51.35040662570936</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="N2" t="n">
-        <v>51.35040662570938</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,13 +34780,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="M3" t="n">
-        <v>51.35040662570935</v>
+        <v>51.35040662570936</v>
       </c>
       <c r="N3" t="n">
         <v>53.51252900994975</v>
@@ -34795,10 +34795,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34950,7 +34950,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35257,10 +35257,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>34.55702612384782</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
@@ -35269,7 +35269,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
         <v>70.09551364982758</v>
@@ -35421,7 +35421,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
         <v>150.7019698410586</v>
@@ -35494,22 +35494,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
+        <v>43.28534947792188</v>
+      </c>
+      <c r="N12" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35655,7 +35655,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N14" t="n">
         <v>207.9338608153932</v>
@@ -35734,13 +35734,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N15" t="n">
-        <v>99.8112771299739</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
@@ -35968,22 +35968,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
+        <v>161.1784674257276</v>
+      </c>
+      <c r="N18" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N18" t="n">
-        <v>99.8112771299739</v>
-      </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36129,7 +36129,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M20" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N20" t="n">
         <v>207.9338608153932</v>
@@ -36202,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
@@ -36211,13 +36211,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36445,19 +36445,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N24" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O24" t="n">
-        <v>43.28534947792182</v>
-      </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,16 +36676,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>169.9067907798017</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
@@ -36919,13 +36919,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792188</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37156,16 +37156,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>113.3808631277495</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37393,10 +37393,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N36" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
@@ -37630,10 +37630,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N39" t="n">
-        <v>99.81127712997396</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37788,10 +37788,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N41" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O41" t="n">
         <v>150.7019698410586</v>
@@ -37867,13 +37867,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>99.8112771299739</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>184.4883612256069</v>
@@ -38104,16 +38104,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
